--- a/excel/4/1122 24th - Model.xlsx
+++ b/excel/4/1122 24th - Model.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Loan" sheetId="1" r:id="rId1"/>
     <sheet name="2015 Refinance" sheetId="3" r:id="rId2"/>
     <sheet name="2016 Refinance" sheetId="5" r:id="rId3"/>
+    <sheet name="Refinance Comparison" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -69,6 +70,15 @@
   <si>
     <t>Δ Equity + Expenses</t>
   </si>
+  <si>
+    <t>Initial Loan</t>
+  </si>
+  <si>
+    <t>2016 Refinance</t>
+  </si>
+  <si>
+    <t>2015 Refinance</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="0.00000%"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +116,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +157,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -161,6 +179,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4542,6 +4562,975 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impact</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Refinance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Refinance Comparison'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial Loan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Refinance Comparison'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Refinance Comparison'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7.4716979290896601E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3744191988413754E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2864422531959377E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2064901065489392E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1335080835943615E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0666174400685108E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0050801300688192E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9482717149535703E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8956603003389544E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8467899923069953E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8012677806803354E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7587530487930064E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7189491160168799E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6815963678970913E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6464666367791678E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.613358575211134E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5820938233696447E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.552513815967459E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5244771075466154E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4978571205767291E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4725402404027993E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4484241962903976E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4254166796796602E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4034341600799127E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.3824008664032164E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.3622479073947649E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3429125095047362E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.2911269384990018E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.2911269384990018E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2911269384990046E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F17-684A-B545-C85C2B19FCE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Refinance Comparison'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015 Refinance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Refinance Comparison'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Refinance Comparison'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>8.2619782289870033E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0921274259875012E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9394041479543348E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.801361360065491E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6759958059749653E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5616517509863881E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.456948738153274E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3607266474579866E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2720034087254401E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1899420938942554E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1138250480953916E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0430333635150791E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9770304515203885E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9153487891606982E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8575791467611696E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8033617711314442E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.752379122368421E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7043498539876983E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6590237949678804E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6161777444185596E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5756119293771828E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5371470068684823E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5006215150996777E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4658896972052432E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4328196355234832E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.401291645912649E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.371196890783383E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3424361768620846E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.2911269384990018E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2911269384990046E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F17-684A-B545-C85C2B19FCE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Refinance Comparison'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016 Refinance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Refinance Comparison'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Refinance Comparison'!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>8.6378472862382136E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4331420059108722E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.249623452911671E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0842023463020107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.934361169552534E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7980277243539842E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6734808199899834E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5592789572316854E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4542057213193666E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3572274883372882E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2674603229992127E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1841438188808837E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1066202397840131E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0343177498968734E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9667368272534225E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9034391771404954E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8440386247638374E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7881935868439561E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7356008117521377E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6859901456265108E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6391201335026809E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5947743040656537E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5527580172047808E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5128957773573415E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4750289342770218E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4390137075784101E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4047194830840357E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3720273383213746E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.3408287619993758E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2911269384990046E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F17-684A-B545-C85C2B19FCE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1359795039"/>
+        <c:axId val="1359796735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1359795039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359796735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1359796735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6.0000000000000012E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359795039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4743,6 +5732,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7839,6 +8868,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8070,6 +9615,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218016</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB51881A-4B56-6C45-9477-CA94358BC1D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8378,7 +9964,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8466,7 +10052,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="H2" s="11">
-        <f>(A2-2014)*12</f>
+        <f t="shared" ref="H2:H32" si="0">(A2-2014)*12</f>
         <v>0</v>
       </c>
       <c r="I2" s="13">
@@ -8478,7 +10064,7 @@
         <v>422500</v>
       </c>
       <c r="K2" s="13">
-        <f t="shared" ref="K2:K65" si="0">I2+J2</f>
+        <f t="shared" ref="K2:K65" si="1">I2+J2</f>
         <v>18750</v>
       </c>
       <c r="L2" s="13"/>
@@ -8510,22 +10096,22 @@
         <v>655.86</v>
       </c>
       <c r="G3" s="14">
-        <f t="shared" ref="G3:G32" si="1">0.05/12</f>
+        <f t="shared" ref="G3:G32" si="2">0.05/12</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="H3" s="11">
-        <f>(A3-2014)*12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I32" si="2">-403750*((1+G3)^360-(1+G3)^H3)/((1+G3)^360-1)</f>
+        <f t="shared" ref="I3:I32" si="3">-403750*((1+G3)^360-(1+G3)^H3)/((1+G3)^360-1)</f>
         <v>-397793.21241727134</v>
       </c>
       <c r="J3" s="13">
         <v>599520</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201726.78758272866</v>
       </c>
       <c r="L3" s="16">
@@ -8562,34 +10148,34 @@
         <v>-5889.1</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="H4" s="11">
-        <f>(A4-2014)*12</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-391531.6642765319</v>
       </c>
       <c r="J4" s="13">
         <v>694183</v>
       </c>
       <c r="K4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>302651.3357234681</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L67" si="3">K4-K3+12*(C4+D4+E4)+F4</f>
+        <f t="shared" ref="L4:L67" si="4">K4-K3+12*(C4+D4+E4)+F4</f>
         <v>95403.488140739442</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" ref="M4:M67" si="4">L4/K3</f>
+        <f t="shared" ref="M4:M67" si="5">L4/K3</f>
         <v>0.47293415655872789</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" ref="N4:N67" si="5">12*(C4+D4+E4)+F4</f>
+        <f t="shared" ref="N4:N67" si="6">12*(C4+D4+E4)+F4</f>
         <v>-5521.0599999999995</v>
       </c>
     </row>
@@ -8614,34 +10200,34 @@
         <v>-9786.9599999999991</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="H5" s="11">
-        <f>(A5-2014)*12</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-384949.76344923448</v>
       </c>
       <c r="J5" s="13">
         <v>819255</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>434305.23655076552</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122035.30082729741</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40322075742894065</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9618.6000000000022</v>
       </c>
     </row>
@@ -8660,26 +10246,26 @@
         <v>-585.60649999999998</v>
       </c>
       <c r="E6" s="4">
-        <f>E5*(1+B6)</f>
+        <f t="shared" ref="E6:E37" si="7">E5*(1+B6)</f>
         <v>2832.5</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="H6" s="20">
-        <f>(A6-2014)*12</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-378031.12008394301</v>
       </c>
       <c r="J6" s="4">
-        <f>J5*(1+B6)</f>
+        <f t="shared" ref="J6:J37" si="8">J5*(1+B6)</f>
         <v>843832.65</v>
       </c>
       <c r="K6" s="4">
@@ -8687,15 +10273,15 @@
         <v>465801.52991605701</v>
       </c>
       <c r="L6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32449.975365291495</v>
       </c>
       <c r="M6" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4716979290896601E-2</v>
       </c>
       <c r="N6" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>953.6820000000007</v>
       </c>
     </row>
@@ -8710,46 +10296,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D69" si="6">D6*(1+B7)</f>
+        <f t="shared" ref="D7:D69" si="9">D6*(1+B7)</f>
         <v>-603.17469500000004</v>
       </c>
       <c r="E7" s="4">
-        <f>E6*(1+B7)</f>
+        <f t="shared" si="7"/>
         <v>2917.4749999999999</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>-370758.50579331646</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="8"/>
+        <v>869147.62950000004</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H7" s="20">
-        <f>(A7-2014)*12</f>
-        <v>60</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>-370758.50579331646</v>
-      </c>
-      <c r="J7" s="4">
-        <f>J6*(1+B7)</f>
-        <v>869147.62950000004</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
         <v>498389.12370668357</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34350.157450626561</v>
       </c>
       <c r="M7" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3744191988413754E-2</v>
       </c>
       <c r="N7" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1762.5636599999962</v>
       </c>
     </row>
@@ -8764,46 +10350,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" si="9"/>
+        <v>-621.26993585000002</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="7"/>
+        <v>3004.9992499999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>-363113.8107530197</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="8"/>
+        <v>895222.0583850001</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>532108.24763198034</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="4"/>
+        <v>36314.835695096765</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="5"/>
+        <v>7.2864422531959377E-2</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="6"/>
-        <v>-621.26993585000002</v>
-      </c>
-      <c r="E8" s="4">
-        <f>E7*(1+B8)</f>
-        <v>3004.9992499999998</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H8" s="20">
-        <f>(A8-2014)*12</f>
-        <v>72</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>-363113.8107530197</v>
-      </c>
-      <c r="J8" s="4">
-        <f>J7*(1+B8)</f>
-        <v>895222.0583850001</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>532108.24763198034</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="3"/>
-        <v>36314.835695096765</v>
-      </c>
-      <c r="M8" s="19">
-        <f t="shared" si="4"/>
-        <v>7.2864422531959377E-2</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="5"/>
         <v>2595.7117697999984</v>
       </c>
     </row>
@@ -8819,46 +10405,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D9" s="4">
+        <f t="shared" si="9"/>
+        <v>-639.90803392550004</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="7"/>
+        <v>3095.1492275000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>-355077.9986057342</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="8"/>
+        <v>922078.72013655014</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>567000.72153081594</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="4"/>
+        <v>38346.328221729593</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="5"/>
+        <v>7.2064901065489392E-2</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" si="6"/>
-        <v>-639.90803392550004</v>
-      </c>
-      <c r="E9" s="4">
-        <f>E8*(1+B9)</f>
-        <v>3095.1492275000001</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H9" s="20">
-        <f>(A9-2014)*12</f>
-        <v>84</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>-355077.9986057342</v>
-      </c>
-      <c r="J9" s="4">
-        <f>J8*(1+B9)</f>
-        <v>922078.72013655014</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>567000.72153081594</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="3"/>
-        <v>38346.328221729593</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" si="4"/>
-        <v>7.2064901065489392E-2</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" si="5"/>
         <v>3453.854322893998</v>
       </c>
     </row>
@@ -8874,46 +10460,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D10" s="4">
+        <f t="shared" si="9"/>
+        <v>-659.10527494326504</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="7"/>
+        <v>3188.0037043249999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>-346631.05905797245</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="8"/>
+        <v>949741.08174064662</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>603110.02268267423</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="4"/>
+        <v>40447.042304439106</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="5"/>
+        <v>7.1335080835943615E-2</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="6"/>
-        <v>-659.10527494326504</v>
-      </c>
-      <c r="E10" s="4">
-        <f>E9*(1+B10)</f>
-        <v>3188.0037043249999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H10" s="20">
-        <f>(A10-2014)*12</f>
-        <v>96</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>-346631.05905797245</v>
-      </c>
-      <c r="J10" s="4">
-        <f>J9*(1+B10)</f>
-        <v>949741.08174064662</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>603110.02268267423</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="3"/>
-        <v>40447.042304439106</v>
-      </c>
-      <c r="M10" s="19">
-        <f t="shared" si="4"/>
-        <v>7.1335080835943615E-2</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="5"/>
         <v>4337.7411525808166</v>
       </c>
     </row>
@@ -8929,46 +10515,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D11" s="4">
+        <f t="shared" si="9"/>
+        <v>-678.87843319156298</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="7"/>
+        <v>3283.64381545475</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>-337751.95805165509</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="8"/>
+        <v>978233.31419286609</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>640481.356141211</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="4"/>
+        <v>42619.47804569501</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="5"/>
+        <v>7.0666174400685108E-2</v>
+      </c>
+      <c r="N11" s="18">
         <f t="shared" si="6"/>
-        <v>-678.87843319156298</v>
-      </c>
-      <c r="E11" s="4">
-        <f>E10*(1+B11)</f>
-        <v>3283.64381545475</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H11" s="20">
-        <f>(A11-2014)*12</f>
-        <v>108</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>-337751.95805165509</v>
-      </c>
-      <c r="J11" s="4">
-        <f>J10*(1+B11)</f>
-        <v>978233.31419286609</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>640481.356141211</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="3"/>
-        <v>42619.47804569501</v>
-      </c>
-      <c r="M11" s="19">
-        <f t="shared" si="4"/>
-        <v>7.0666174400685108E-2</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="5"/>
         <v>5248.1445871582418</v>
       </c>
     </row>
@@ -8984,46 +10570,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D12" s="4">
+        <f t="shared" si="9"/>
+        <v>-699.24478618730984</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="7"/>
+        <v>3382.1531299183926</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>-328418.58538637077</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="8"/>
+        <v>1007580.3136186521</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>679161.72823228128</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="4"/>
+        <v>44866.23221584328</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="5"/>
+        <v>7.0050801300688192E-2</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="6"/>
-        <v>-699.24478618730984</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E11*(1+B12)</f>
-        <v>3382.1531299183926</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H12" s="20">
-        <f>(A12-2014)*12</f>
-        <v>120</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="2"/>
-        <v>-328418.58538637077</v>
-      </c>
-      <c r="J12" s="4">
-        <f>J11*(1+B12)</f>
-        <v>1007580.3136186521</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>679161.72823228128</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="3"/>
-        <v>44866.23221584328</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="4"/>
-        <v>7.0050801300688192E-2</v>
-      </c>
-      <c r="N12" s="18">
-        <f t="shared" si="5"/>
         <v>6185.860124772993</v>
       </c>
     </row>
@@ -9039,46 +10625,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D13" s="4">
+        <f t="shared" si="9"/>
+        <v>-720.22212977292918</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="7"/>
+        <v>3483.6177238159444</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>-318607.69966189313</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="8"/>
+        <v>1037807.7230272116</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>719200.02336531854</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="4"/>
+        <v>47190.00226155344</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="5"/>
+        <v>6.9482717149535703E-2</v>
+      </c>
+      <c r="N13" s="18">
         <f t="shared" si="6"/>
-        <v>-720.22212977292918</v>
-      </c>
-      <c r="E13" s="4">
-        <f>E12*(1+B13)</f>
-        <v>3483.6177238159444</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H13" s="20">
-        <f>(A13-2014)*12</f>
-        <v>132</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>-318607.69966189313</v>
-      </c>
-      <c r="J13" s="4">
-        <f>J12*(1+B13)</f>
-        <v>1037807.7230272116</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>719200.02336531854</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="3"/>
-        <v>47190.00226155344</v>
-      </c>
-      <c r="M13" s="19">
-        <f t="shared" si="4"/>
-        <v>6.9482717149535703E-2</v>
-      </c>
-      <c r="N13" s="18">
-        <f t="shared" si="5"/>
         <v>7151.7071285161801</v>
       </c>
     </row>
@@ -9094,46 +10680,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D14" s="4">
+        <f t="shared" si="9"/>
+        <v>-741.82879366611712</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="7"/>
+        <v>3588.1262555304229</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>-308294.87040385033</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="8"/>
+        <v>1068941.954718028</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>760647.08431417763</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="4"/>
+        <v>49593.590491230752</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="5"/>
+        <v>6.8956603003389544E-2</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="6"/>
-        <v>-741.82879366611712</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E13*(1+B14)</f>
-        <v>3588.1262555304229</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H14" s="20">
-        <f>(A14-2014)*12</f>
-        <v>144</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>-308294.87040385033</v>
-      </c>
-      <c r="J14" s="4">
-        <f>J13*(1+B14)</f>
-        <v>1068941.954718028</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>760647.08431417763</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="3"/>
-        <v>49593.590491230752</v>
-      </c>
-      <c r="M14" s="19">
-        <f t="shared" si="4"/>
-        <v>6.8956603003389544E-2</v>
-      </c>
-      <c r="N14" s="18">
-        <f t="shared" si="5"/>
         <v>8146.529542371667</v>
       </c>
     </row>
@@ -9149,46 +10735,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D15" s="4">
+        <f t="shared" si="9"/>
+        <v>-764.08365747610071</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="7"/>
+        <v>3695.7700431963358</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>-297454.41722843581</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="8"/>
+        <v>1101010.2133595687</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>803555.79613113287</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="4"/>
+        <v>52079.908445598063</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="5"/>
+        <v>6.8467899923069953E-2</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="6"/>
-        <v>-764.08365747610071</v>
-      </c>
-      <c r="E15" s="4">
-        <f>E14*(1+B15)</f>
-        <v>3695.7700431963358</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H15" s="20">
-        <f>(A15-2014)*12</f>
-        <v>156</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="2"/>
-        <v>-297454.41722843581</v>
-      </c>
-      <c r="J15" s="4">
-        <f>J14*(1+B15)</f>
-        <v>1101010.2133595687</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>803555.79613113287</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="3"/>
-        <v>52079.908445598063</v>
-      </c>
-      <c r="M15" s="19">
-        <f t="shared" si="4"/>
-        <v>6.8467899923069953E-2</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="5"/>
         <v>9171.1966286428215</v>
       </c>
     </row>
@@ -9204,46 +10790,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D16" s="4">
+        <f t="shared" si="9"/>
+        <v>-787.00616720038374</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="7"/>
+        <v>3806.6431444922259</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>-286059.34589466901</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="8"/>
+        <v>1134040.5197603558</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>847981.17386568687</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="4"/>
+        <v>54651.981462056101</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="5"/>
+        <v>6.8012677806803354E-2</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="6"/>
-        <v>-787.00616720038374</v>
-      </c>
-      <c r="E16" s="4">
-        <f>E15*(1+B16)</f>
-        <v>3806.6431444922259</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H16" s="20">
-        <f>(A16-2014)*12</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="2"/>
-        <v>-286059.34589466901</v>
-      </c>
-      <c r="J16" s="4">
-        <f>J15*(1+B16)</f>
-        <v>1134040.5197603558</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
-        <v>847981.17386568687</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="3"/>
-        <v>54651.981462056101</v>
-      </c>
-      <c r="M16" s="19">
-        <f t="shared" si="4"/>
-        <v>6.8012677806803354E-2</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" si="5"/>
         <v>10226.603727502103</v>
       </c>
     </row>
@@ -9259,46 +10845,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D17" s="4">
+        <f t="shared" si="9"/>
+        <v>-810.61635221639528</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="7"/>
+        <v>3920.8424388269927</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
+        <v>-274081.28108496894</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="8"/>
+        <v>1168061.7353531665</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>893980.45426819753</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="4"/>
+        <v>57312.953441837832</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="5"/>
+        <v>6.7587530487930064E-2</v>
+      </c>
+      <c r="N17" s="18">
         <f t="shared" si="6"/>
-        <v>-810.61635221639528</v>
-      </c>
-      <c r="E17" s="4">
-        <f>E16*(1+B17)</f>
-        <v>3920.8424388269927</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H17" s="20">
-        <f>(A17-2014)*12</f>
-        <v>180</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="2"/>
-        <v>-274081.28108496894</v>
-      </c>
-      <c r="J17" s="4">
-        <f>J16*(1+B17)</f>
-        <v>1168061.7353531665</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>893980.45426819753</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="3"/>
-        <v>57312.953441837832</v>
-      </c>
-      <c r="M17" s="19">
-        <f t="shared" si="4"/>
-        <v>6.7587530487930064E-2</v>
-      </c>
-      <c r="N17" s="18">
-        <f t="shared" si="5"/>
         <v>11313.67303932717</v>
       </c>
     </row>
@@ -9314,46 +10900,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D18" s="4">
+        <f t="shared" si="9"/>
+        <v>-834.93484278288713</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="7"/>
+        <v>4038.4677119918028</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="3"/>
+        <v>-261490.39574665428</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="8"/>
+        <v>1203103.5874137615</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>941613.19166710728</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="4"/>
+        <v>60066.091829416742</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="5"/>
+        <v>6.7189491160168799E-2</v>
+      </c>
+      <c r="N18" s="18">
         <f t="shared" si="6"/>
-        <v>-834.93484278288713</v>
-      </c>
-      <c r="E18" s="4">
-        <f>E17*(1+B18)</f>
-        <v>4038.4677119918028</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H18" s="20">
-        <f>(A18-2014)*12</f>
-        <v>192</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="2"/>
-        <v>-261490.39574665428</v>
-      </c>
-      <c r="J18" s="4">
-        <f>J17*(1+B18)</f>
-        <v>1203103.5874137615</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="0"/>
-        <v>941613.19166710728</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="3"/>
-        <v>60066.091829416742</v>
-      </c>
-      <c r="M18" s="19">
-        <f t="shared" si="4"/>
-        <v>6.7189491160168799E-2</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" si="5"/>
         <v>12433.354430506986</v>
       </c>
     </row>
@@ -9369,46 +10955,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D19" s="4">
+        <f t="shared" si="9"/>
+        <v>-859.98288806637379</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="7"/>
+        <v>4159.6217433515567</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="3"/>
+        <v>-248255.33681842012</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="8"/>
+        <v>1239196.6950361745</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>990941.3582177544</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="4"/>
+        <v>62914.792814069311</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="5"/>
+        <v>6.6815963678970913E-2</v>
+      </c>
+      <c r="N19" s="18">
         <f t="shared" si="6"/>
-        <v>-859.98288806637379</v>
-      </c>
-      <c r="E19" s="4">
-        <f>E18*(1+B19)</f>
-        <v>4159.6217433515567</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H19" s="20">
-        <f>(A19-2014)*12</f>
-        <v>204</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="2"/>
-        <v>-248255.33681842012</v>
-      </c>
-      <c r="J19" s="4">
-        <f>J18*(1+B19)</f>
-        <v>1239196.6950361745</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>990941.3582177544</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="3"/>
-        <v>62914.792814069311</v>
-      </c>
-      <c r="M19" s="19">
-        <f t="shared" si="4"/>
-        <v>6.6815963678970913E-2</v>
-      </c>
-      <c r="N19" s="18">
-        <f t="shared" si="5"/>
         <v>13586.626263422197</v>
       </c>
     </row>
@@ -9424,46 +11010,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D20" s="4">
+        <f t="shared" si="9"/>
+        <v>-885.78237470836507</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="7"/>
+        <v>4284.4103956521039</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="3"/>
+        <v>-234343.14715684089</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="8"/>
+        <v>1276372.5958872598</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>1042029.4487304189</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="4"/>
+        <v>65862.586763989384</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="5"/>
+        <v>6.6464666367791678E-2</v>
+      </c>
+      <c r="N20" s="18">
         <f t="shared" si="6"/>
-        <v>-885.78237470836507</v>
-      </c>
-      <c r="E20" s="4">
-        <f>E19*(1+B20)</f>
-        <v>4284.4103956521039</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H20" s="20">
-        <f>(A20-2014)*12</f>
-        <v>216</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="2"/>
-        <v>-234343.14715684089</v>
-      </c>
-      <c r="J20" s="4">
-        <f>J19*(1+B20)</f>
-        <v>1276372.5958872598</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="0"/>
-        <v>1042029.4487304189</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="3"/>
-        <v>65862.586763989384</v>
-      </c>
-      <c r="M20" s="19">
-        <f t="shared" si="4"/>
-        <v>6.6464666367791678E-2</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" si="5"/>
         <v>14774.496251324868</v>
       </c>
     </row>
@@ -9479,46 +11065,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D21" s="4">
+        <f t="shared" si="9"/>
+        <v>-912.35584594961608</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="7"/>
+        <v>4412.9427075216672</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="3"/>
+        <v>-219719.18346848473</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="8"/>
+        <v>1314663.7737638776</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>1094944.5902953928</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="4"/>
+        <v>68913.143903838471</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="5"/>
+        <v>6.613358575211134E-2</v>
+      </c>
+      <c r="N21" s="18">
         <f t="shared" si="6"/>
-        <v>-912.35584594961608</v>
-      </c>
-      <c r="E21" s="4">
-        <f>E20*(1+B21)</f>
-        <v>4412.9427075216672</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H21" s="20">
-        <f>(A21-2014)*12</f>
-        <v>228</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="2"/>
-        <v>-219719.18346848473</v>
-      </c>
-      <c r="J21" s="5">
-        <f>J20*(1+B21)</f>
-        <v>1314663.7737638776</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="0"/>
-        <v>1094944.5902953928</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="3"/>
-        <v>68913.143903838471</v>
-      </c>
-      <c r="M21" s="19">
-        <f t="shared" si="4"/>
-        <v>6.613358575211134E-2</v>
-      </c>
-      <c r="N21" s="18">
-        <f t="shared" si="5"/>
         <v>15998.002338864611</v>
       </c>
     </row>
@@ -9534,46 +11120,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D22" s="4">
+        <f t="shared" si="9"/>
+        <v>-939.72652132810458</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="7"/>
+        <v>4545.330988747317</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>-204347.03004327862</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="8"/>
+        <v>1354103.6869767939</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>1149756.6569335153</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="4"/>
+        <v>72070.280247153103</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="5"/>
+        <v>6.5820938233696447E-2</v>
+      </c>
+      <c r="N22" s="18">
         <f t="shared" si="6"/>
-        <v>-939.72652132810458</v>
-      </c>
-      <c r="E22" s="4">
-        <f>E21*(1+B22)</f>
-        <v>4545.330988747317</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H22" s="20">
-        <f>(A22-2014)*12</f>
-        <v>240</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>-204347.03004327862</v>
-      </c>
-      <c r="J22" s="5">
-        <f>J21*(1+B22)</f>
-        <v>1354103.6869767939</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="0"/>
-        <v>1149756.6569335153</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="3"/>
-        <v>72070.280247153103</v>
-      </c>
-      <c r="M22" s="19">
-        <f t="shared" si="4"/>
-        <v>6.5820938233696447E-2</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" si="5"/>
         <v>17258.21360903055</v>
       </c>
     </row>
@@ -9589,46 +11175,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D23" s="4">
+        <f t="shared" si="9"/>
+        <v>-967.9183169679477</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="7"/>
+        <v>4681.6909184097367</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>-188188.40807430985</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="8"/>
+        <v>1394726.7975860978</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>1206538.389511788</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="4"/>
+        <v>75337.963795574164</v>
+      </c>
+      <c r="M23" s="19">
+        <f t="shared" si="5"/>
+        <v>6.552513815967459E-2</v>
+      </c>
+      <c r="N23" s="18">
         <f t="shared" si="6"/>
-        <v>-967.9183169679477</v>
-      </c>
-      <c r="E23" s="4">
-        <f>E22*(1+B23)</f>
-        <v>4681.6909184097367</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H23" s="20">
-        <f>(A23-2014)*12</f>
-        <v>252</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="2"/>
-        <v>-188188.40807430985</v>
-      </c>
-      <c r="J23" s="5">
-        <f>J22*(1+B23)</f>
-        <v>1394726.7975860978</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="0"/>
-        <v>1206538.389511788</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="3"/>
-        <v>75337.963795574164</v>
-      </c>
-      <c r="M23" s="19">
-        <f t="shared" si="4"/>
-        <v>6.552513815967459E-2</v>
-      </c>
-      <c r="N23" s="18">
-        <f t="shared" si="5"/>
         <v>18556.231217301465</v>
       </c>
     </row>
@@ -9644,46 +11230,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D24" s="4">
+        <f t="shared" si="9"/>
+        <v>-996.95586647698622</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="7"/>
+        <v>4822.1416459620286</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>-171203.08033825512</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="8"/>
+        <v>1436568.6015136808</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>1265365.5211754257</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="4"/>
+        <v>78720.32101745822</v>
+      </c>
+      <c r="M24" s="19">
+        <f t="shared" si="5"/>
+        <v>6.5244771075466154E-2</v>
+      </c>
+      <c r="N24" s="18">
         <f t="shared" si="6"/>
-        <v>-996.95586647698622</v>
-      </c>
-      <c r="E24" s="4">
-        <f>E23*(1+B24)</f>
-        <v>4822.1416459620286</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H24" s="20">
-        <f>(A24-2014)*12</f>
-        <v>264</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="2"/>
-        <v>-171203.08033825512</v>
-      </c>
-      <c r="J24" s="5">
-        <f>J23*(1+B24)</f>
-        <v>1436568.6015136808</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="0"/>
-        <v>1265365.5211754257</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="3"/>
-        <v>78720.32101745822</v>
-      </c>
-      <c r="M24" s="19">
-        <f t="shared" si="4"/>
-        <v>6.5244771075466154E-2</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" si="5"/>
         <v>19893.189353820511</v>
       </c>
     </row>
@@ -9699,46 +11285,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D25" s="4">
+        <f t="shared" si="9"/>
+        <v>-1026.8645424712959</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="7"/>
+        <v>4966.8058953408899</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>-153348.75099908057</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="8"/>
+        <v>1479665.6595590913</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>1326316.9085600108</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="4"/>
+        <v>82221.643619020237</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" si="5"/>
+        <v>6.4978571205767291E-2</v>
+      </c>
+      <c r="N25" s="18">
         <f t="shared" si="6"/>
-        <v>-1026.8645424712959</v>
-      </c>
-      <c r="E25" s="4">
-        <f>E24*(1+B25)</f>
-        <v>4966.8058953408899</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H25" s="20">
-        <f>(A25-2014)*12</f>
-        <v>276</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="2"/>
-        <v>-153348.75099908057</v>
-      </c>
-      <c r="J25" s="5">
-        <f>J24*(1+B25)</f>
-        <v>1479665.6595590913</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="0"/>
-        <v>1326316.9085600108</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="3"/>
-        <v>82221.643619020237</v>
-      </c>
-      <c r="M25" s="19">
-        <f t="shared" si="4"/>
-        <v>6.4978571205767291E-2</v>
-      </c>
-      <c r="N25" s="18">
-        <f t="shared" si="5"/>
         <v>21270.256234435128</v>
       </c>
     </row>
@@ -9754,46 +11340,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D26" s="4">
+        <f t="shared" si="9"/>
+        <v>-1057.6704787454348</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="7"/>
+        <v>5115.8100722011168</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="3"/>
+        <v>-134580.96028550836</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="8"/>
+        <v>1524055.6293458641</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>1389474.6690603558</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="4"/>
+        <v>85846.395621813106</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="5"/>
+        <v>6.4725402404027993E-2</v>
+      </c>
+      <c r="N26" s="18">
         <f t="shared" si="6"/>
-        <v>-1057.6704787454348</v>
-      </c>
-      <c r="E26" s="4">
-        <f>E25*(1+B26)</f>
-        <v>5115.8100722011168</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H26" s="20">
-        <f>(A26-2014)*12</f>
-        <v>288</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="2"/>
-        <v>-134580.96028550836</v>
-      </c>
-      <c r="J26" s="5">
-        <f>J25*(1+B26)</f>
-        <v>1524055.6293458641</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="0"/>
-        <v>1389474.6690603558</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="3"/>
-        <v>85846.395621813106</v>
-      </c>
-      <c r="M26" s="19">
-        <f t="shared" si="4"/>
-        <v>6.4725402404027993E-2</v>
-      </c>
-      <c r="N26" s="18">
-        <f t="shared" si="5"/>
         <v>22688.635121468185</v>
       </c>
     </row>
@@ -9809,46 +11395,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D27" s="4">
+        <f t="shared" si="9"/>
+        <v>-1089.4005931077979</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="7"/>
+        <v>5269.2843743671501</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="3"/>
+        <v>-114852.97377998267</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="8"/>
+        <v>1569777.2982262401</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>1454924.3244462574</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="4"/>
+        <v>89599.220761013916</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" si="5"/>
+        <v>6.4484241962903976E-2</v>
+      </c>
+      <c r="N27" s="18">
         <f t="shared" si="6"/>
-        <v>-1089.4005931077979</v>
-      </c>
-      <c r="E27" s="4">
-        <f>E26*(1+B27)</f>
-        <v>5269.2843743671501</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H27" s="20">
-        <f>(A27-2014)*12</f>
-        <v>300</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="2"/>
-        <v>-114852.97377998267</v>
-      </c>
-      <c r="J27" s="5">
-        <f>J26*(1+B27)</f>
-        <v>1569777.2982262401</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="0"/>
-        <v>1454924.3244462574</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="3"/>
-        <v>89599.220761013916</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="4"/>
-        <v>6.4484241962903976E-2</v>
-      </c>
-      <c r="N27" s="18">
-        <f t="shared" si="5"/>
         <v>24149.565375112223</v>
       </c>
     </row>
@@ -9864,46 +11450,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D28" s="4">
+        <f t="shared" si="9"/>
+        <v>-1122.0826109010318</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="7"/>
+        <v>5427.3629055981646</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="3"/>
+        <v>-94115.66604344899</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="8"/>
+        <v>1616870.6171730272</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>1522754.9511295783</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="4"/>
+        <v>93484.950219686434</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="5"/>
+        <v>6.4254166796796602E-2</v>
+      </c>
+      <c r="N28" s="18">
         <f t="shared" si="6"/>
-        <v>-1122.0826109010318</v>
-      </c>
-      <c r="E28" s="4">
-        <f>E27*(1+B28)</f>
-        <v>5427.3629055981646</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H28" s="20">
-        <f>(A28-2014)*12</f>
-        <v>312</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="2"/>
-        <v>-94115.66604344899</v>
-      </c>
-      <c r="J28" s="5">
-        <f>J27*(1+B28)</f>
-        <v>1616870.6171730272</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="0"/>
-        <v>1522754.9511295783</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="3"/>
-        <v>93484.950219686434</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" si="4"/>
-        <v>6.4254166796796602E-2</v>
-      </c>
-      <c r="N28" s="18">
-        <f t="shared" si="5"/>
         <v>25654.323536365591</v>
       </c>
     </row>
@@ -9919,46 +11505,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D29" s="4">
+        <f t="shared" si="9"/>
+        <v>-1155.7450892280629</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="7"/>
+        <v>5590.1837927661099</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="3"/>
+        <v>-72317.39828615672</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="8"/>
+        <v>1665376.7356882181</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>1593059.3374020613</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="4"/>
+        <v>97508.610714939598</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" si="5"/>
+        <v>6.4034341600799127E-2</v>
+      </c>
+      <c r="N29" s="18">
         <f t="shared" si="6"/>
-        <v>-1155.7450892280629</v>
-      </c>
-      <c r="E29" s="4">
-        <f>E28*(1+B29)</f>
-        <v>5590.1837927661099</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H29" s="20">
-        <f>(A29-2014)*12</f>
-        <v>324</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="2"/>
-        <v>-72317.39828615672</v>
-      </c>
-      <c r="J29" s="5">
-        <f>J28*(1+B29)</f>
-        <v>1665376.7356882181</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="0"/>
-        <v>1593059.3374020613</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="3"/>
-        <v>97508.610714939598</v>
-      </c>
-      <c r="M29" s="19">
-        <f t="shared" si="4"/>
-        <v>6.4034341600799127E-2</v>
-      </c>
-      <c r="N29" s="18">
-        <f t="shared" si="5"/>
         <v>27204.224442456562</v>
       </c>
     </row>
@@ -9974,46 +11560,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D30" s="4">
+        <f t="shared" si="9"/>
+        <v>-1190.4174419049048</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="7"/>
+        <v>5757.8893065490938</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="3"/>
+        <v>-49403.889779867161</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="8"/>
+        <v>1715338.0377588647</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
+        <v>1665934.1479789976</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="4"/>
+        <v>101675.4329526665</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="5"/>
+        <v>6.3824008664032164E-2</v>
+      </c>
+      <c r="N30" s="18">
         <f t="shared" si="6"/>
-        <v>-1190.4174419049048</v>
-      </c>
-      <c r="E30" s="4">
-        <f>E29*(1+B30)</f>
-        <v>5757.8893065490938</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H30" s="20">
-        <f>(A30-2014)*12</f>
-        <v>336</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="2"/>
-        <v>-49403.889779867161</v>
-      </c>
-      <c r="J30" s="5">
-        <f>J29*(1+B30)</f>
-        <v>1715338.0377588647</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="0"/>
-        <v>1665934.1479789976</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="3"/>
-        <v>101675.4329526665</v>
-      </c>
-      <c r="M30" s="19">
-        <f t="shared" si="4"/>
-        <v>6.3824008664032164E-2</v>
-      </c>
-      <c r="N30" s="18">
-        <f t="shared" si="5"/>
         <v>28800.622375730265</v>
       </c>
     </row>
@@ -10029,46 +11615,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D31" s="4">
+        <f t="shared" si="9"/>
+        <v>-1226.129965162052</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="7"/>
+        <v>5930.625985745567</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="3"/>
+        <v>-25318.082691266714</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="8"/>
+        <v>1766798.1788916306</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>1741480.0962003639</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="4"/>
+        <v>105990.86046836857</v>
+      </c>
+      <c r="M31" s="19">
+        <f t="shared" si="5"/>
+        <v>6.3622479073947649E-2</v>
+      </c>
+      <c r="N31" s="18">
         <f t="shared" si="6"/>
-        <v>-1226.129965162052</v>
-      </c>
-      <c r="E31" s="4">
-        <f>E30*(1+B31)</f>
-        <v>5930.625985745567</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H31" s="20">
-        <f>(A31-2014)*12</f>
-        <v>348</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="2"/>
-        <v>-25318.082691266714</v>
-      </c>
-      <c r="J31" s="5">
-        <f>J30*(1+B31)</f>
-        <v>1766798.1788916306</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" si="0"/>
-        <v>1741480.0962003639</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" si="3"/>
-        <v>105990.86046836857</v>
-      </c>
-      <c r="M31" s="19">
-        <f t="shared" si="4"/>
-        <v>6.3622479073947649E-2</v>
-      </c>
-      <c r="N31" s="18">
-        <f t="shared" si="5"/>
         <v>30444.912247002179</v>
       </c>
     </row>
@@ -10084,46 +11670,46 @@
         <v>-2167.42</v>
       </c>
       <c r="D32" s="4">
+        <f t="shared" si="9"/>
+        <v>-1262.9138641169136</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="7"/>
+        <v>6108.5447653179344</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="8"/>
+        <v>1819802.1242583797</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>1819802.1242583797</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="4"/>
+        <v>110460.558872428</v>
+      </c>
+      <c r="M32" s="19">
+        <f t="shared" si="5"/>
+        <v>6.3429125095047362E-2</v>
+      </c>
+      <c r="N32" s="18">
         <f t="shared" si="6"/>
-        <v>-1262.9138641169136</v>
-      </c>
-      <c r="E32" s="4">
-        <f>E31*(1+B32)</f>
-        <v>6108.5447653179344</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="H32" s="20">
-        <f>(A32-2014)*12</f>
-        <v>360</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <f>J31*(1+B32)</f>
-        <v>1819802.1242583797</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="0"/>
-        <v>1819802.1242583797</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="3"/>
-        <v>110460.558872428</v>
-      </c>
-      <c r="M32" s="19">
-        <f t="shared" si="4"/>
-        <v>6.3429125095047362E-2</v>
-      </c>
-      <c r="N32" s="18">
-        <f t="shared" si="5"/>
         <v>32138.530814412246</v>
       </c>
     </row>
@@ -10139,11 +11725,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1300.801280040421</v>
       </c>
       <c r="E33" s="4">
-        <f>E32*(1+B33)</f>
+        <f t="shared" si="7"/>
         <v>6291.8011082774728</v>
       </c>
       <c r="F33" s="4">
@@ -10155,23 +11741,23 @@
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f>J32*(1+B33)</f>
+        <f t="shared" si="8"/>
         <v>1874396.1879861311</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1874396.1879861311</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114486.061666596</v>
       </c>
       <c r="M33" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990018E-2</v>
       </c>
       <c r="N33" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59891.997938844623</v>
       </c>
     </row>
@@ -10187,11 +11773,11 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1339.8253184416337</v>
       </c>
       <c r="E34" s="4">
-        <f>E33*(1+B34)</f>
+        <f t="shared" si="7"/>
         <v>6480.5551415257969</v>
       </c>
       <c r="F34" s="4">
@@ -10203,23 +11789,23 @@
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f>J33*(1+B34)</f>
+        <f t="shared" si="8"/>
         <v>1930628.073625715</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1930628.073625715</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117920.64351659389</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990018E-2</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61688.757877009964</v>
       </c>
     </row>
@@ -10235,11 +11821,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1380.0200779948827</v>
       </c>
       <c r="E35" s="4">
-        <f>E34*(1+B35)</f>
+        <f t="shared" si="7"/>
         <v>6674.9717957715711</v>
       </c>
       <c r="F35" s="4">
@@ -10251,23 +11837,23 @@
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <f>J34*(1+B35)</f>
+        <f t="shared" si="8"/>
         <v>1988546.9158344865</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1988546.9158344865</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121458.26282209175</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990046E-2</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63539.420613320261</v>
       </c>
     </row>
@@ -10283,11 +11869,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1421.4206803347292</v>
       </c>
       <c r="E36" s="4">
-        <f>E35*(1+B36)</f>
+        <f t="shared" si="7"/>
         <v>6875.2209496447185</v>
       </c>
       <c r="F36" s="4">
@@ -10299,23 +11885,23 @@
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <f>J35*(1+B36)</f>
+        <f t="shared" si="8"/>
         <v>2048203.3233095212</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2048203.3233095212</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125102.01070675458</v>
       </c>
       <c r="M36" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990087E-2</v>
       </c>
       <c r="N36" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65445.603231719877</v>
       </c>
     </row>
@@ -10331,11 +11917,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1464.0633007447711</v>
       </c>
       <c r="E37" s="4">
-        <f>E36*(1+B37)</f>
+        <f t="shared" si="7"/>
         <v>7081.4775781340604</v>
       </c>
       <c r="F37" s="4">
@@ -10347,23 +11933,23 @@
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <f>J36*(1+B37)</f>
+        <f t="shared" si="8"/>
         <v>2109649.423008807</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2109649.423008807</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128855.07102795728</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990115E-2</v>
       </c>
       <c r="N37" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67408.971328671469</v>
       </c>
     </row>
@@ -10379,11 +11965,11 @@
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1507.9851997671144</v>
       </c>
       <c r="E38" s="4">
-        <f>E37*(1+B38)</f>
+        <f t="shared" ref="E38:E69" si="10">E37*(1+B38)</f>
         <v>7293.9219054780824</v>
       </c>
       <c r="F38" s="4">
@@ -10395,23 +11981,23 @@
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f>J37*(1+B38)</f>
+        <f t="shared" ref="J38:J69" si="11">J37*(1+B38)</f>
         <v>2172938.9056990715</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2172938.9056990715</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132720.72315879609</v>
       </c>
       <c r="M38" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990143E-2</v>
       </c>
       <c r="N38" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69431.240468531614</v>
       </c>
     </row>
@@ -10427,11 +12013,11 @@
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1553.2247557601279</v>
       </c>
       <c r="E39" s="4">
-        <f>E38*(1+B39)</f>
+        <f t="shared" si="10"/>
         <v>7512.739562642425</v>
       </c>
       <c r="F39" s="4">
@@ -10443,23 +12029,23 @@
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <f>J38*(1+B39)</f>
+        <f t="shared" si="11"/>
         <v>2238127.0728700436</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2238127.0728700436</v>
       </c>
       <c r="L39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>136702.34485355968</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N39" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71514.177682587571</v>
       </c>
     </row>
@@ -10475,11 +12061,11 @@
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1599.8214984329318</v>
       </c>
       <c r="E40" s="4">
-        <f>E39*(1+B40)</f>
+        <f t="shared" si="10"/>
         <v>7738.1217495216979</v>
       </c>
       <c r="F40" s="4">
@@ -10491,23 +12077,23 @@
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <f>J39*(1+B40)</f>
+        <f t="shared" si="11"/>
         <v>2305270.885056145</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2305270.885056145</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140803.41519916663</v>
       </c>
       <c r="M40" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N40" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73659.603013065192</v>
       </c>
     </row>
@@ -10523,11 +12109,11 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1647.8161433859198</v>
       </c>
       <c r="E41" s="4">
-        <f>E40*(1+B41)</f>
+        <f t="shared" si="10"/>
         <v>7970.2654020073487</v>
       </c>
       <c r="F41" s="4">
@@ -10539,23 +12125,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <f>J40*(1+B41)</f>
+        <f t="shared" si="11"/>
         <v>2374429.0116078295</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2374429.0116078295</v>
       </c>
       <c r="L41" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>145027.51765514159</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990059E-2</v>
       </c>
       <c r="N41" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75869.39110345715</v>
       </c>
     </row>
@@ -10571,11 +12157,11 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1697.2506276874974</v>
       </c>
       <c r="E42" s="4">
-        <f>E41*(1+B42)</f>
+        <f t="shared" si="10"/>
         <v>8209.3733640675691</v>
       </c>
       <c r="F42" s="4">
@@ -10587,23 +12173,23 @@
         <v>0</v>
       </c>
       <c r="J42" s="5">
-        <f>J41*(1+B42)</f>
+        <f t="shared" si="11"/>
         <v>2445661.8819560646</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2445661.8819560646</v>
       </c>
       <c r="L42" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149378.34318479599</v>
       </c>
       <c r="M42" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990115E-2</v>
       </c>
       <c r="N42" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78145.472836560861</v>
       </c>
     </row>
@@ -10619,11 +12205,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1748.1681465181223</v>
       </c>
       <c r="E43" s="4">
-        <f>E42*(1+B43)</f>
+        <f t="shared" si="10"/>
         <v>8455.6545649895961</v>
       </c>
       <c r="F43" s="4">
@@ -10635,23 +12221,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="5">
-        <f>J42*(1+B43)</f>
+        <f t="shared" si="11"/>
         <v>2519031.7384147467</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2519031.7384147467</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153859.69348033977</v>
       </c>
       <c r="M43" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N43" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80489.837021657673</v>
       </c>
     </row>
@@ -10667,11 +12253,11 @@
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1800.6131909136659</v>
       </c>
       <c r="E44" s="4">
-        <f>E43*(1+B44)</f>
+        <f t="shared" si="10"/>
         <v>8709.3242019392837</v>
       </c>
       <c r="F44" s="4">
@@ -10683,23 +12269,23 @@
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <f>J43*(1+B44)</f>
+        <f t="shared" si="11"/>
         <v>2594602.6905671894</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2594602.6905671894</v>
       </c>
       <c r="L44" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>158475.48428475007</v>
       </c>
       <c r="M44" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990115E-2</v>
       </c>
       <c r="N44" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82904.532132307417</v>
       </c>
     </row>
@@ -10715,11 +12301,11 @@
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1854.631586641076</v>
       </c>
       <c r="E45" s="4">
-        <f>E44*(1+B45)</f>
+        <f t="shared" si="10"/>
         <v>8970.603927997463</v>
       </c>
       <c r="F45" s="4">
@@ -10731,23 +12317,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f>J44*(1+B45)</f>
+        <f t="shared" si="11"/>
         <v>2672440.7712842049</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2672440.7712842049</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>163229.74881329219</v>
       </c>
       <c r="M45" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384989948E-2</v>
       </c>
       <c r="N45" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85391.66809627664</v>
       </c>
     </row>
@@ -10763,11 +12349,11 @@
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1910.2705342403083</v>
       </c>
       <c r="E46" s="4">
-        <f>E45*(1+B46)</f>
+        <f t="shared" si="10"/>
         <v>9239.7220458373868</v>
       </c>
       <c r="F46" s="4">
@@ -10779,23 +12365,23 @@
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <f>J45*(1+B46)</f>
+        <f t="shared" si="11"/>
         <v>2752613.994422731</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2752613.994422731</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168126.64127769103</v>
       </c>
       <c r="M46" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.291126938498999E-2</v>
       </c>
       <c r="N46" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87953.418139164947</v>
       </c>
     </row>
@@ -10811,11 +12397,11 @@
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1967.5786502675176</v>
       </c>
       <c r="E47" s="4">
-        <f>E46*(1+B47)</f>
+        <f t="shared" si="10"/>
         <v>9516.9137072125086</v>
       </c>
       <c r="F47" s="4">
@@ -10827,23 +12413,23 @@
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <f>J46*(1+B47)</f>
+        <f t="shared" si="11"/>
         <v>2835192.4142554128</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2835192.4142554128</v>
       </c>
       <c r="L47" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173170.44051602168</v>
       </c>
       <c r="M47" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384989962E-2</v>
       </c>
       <c r="N47" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90592.020683339899</v>
       </c>
     </row>
@@ -10859,11 +12445,11 @@
         <v>0</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2026.606009775543</v>
       </c>
       <c r="E48" s="4">
-        <f>E47*(1+B48)</f>
+        <f t="shared" si="10"/>
         <v>9802.4211184288833</v>
       </c>
       <c r="F48" s="4">
@@ -10875,23 +12461,23 @@
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <f>J47*(1+B48)</f>
+        <f t="shared" si="11"/>
         <v>2920248.186683075</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2920248.186683075</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>178365.55373150235</v>
       </c>
       <c r="M48" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384989976E-2</v>
       </c>
       <c r="N48" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93309.781303840078</v>
       </c>
     </row>
@@ -10907,11 +12493,11 @@
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2087.4041900688094</v>
       </c>
       <c r="E49" s="4">
-        <f>E48*(1+B49)</f>
+        <f t="shared" si="10"/>
         <v>10096.49375198175</v>
       </c>
       <c r="F49" s="4">
@@ -10923,23 +12509,23 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>J48*(1+B49)</f>
+        <f t="shared" si="11"/>
         <v>3007855.6322835675</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3007855.6322835675</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>183716.52034344769</v>
       </c>
       <c r="M49" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990059E-2</v>
       </c>
       <c r="N49" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96109.074742955287</v>
       </c>
     </row>
@@ -10955,11 +12541,11 @@
         <v>0</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2150.0263157708737</v>
       </c>
       <c r="E50" s="4">
-        <f>E49*(1+B50)</f>
+        <f t="shared" si="10"/>
         <v>10399.388564541203</v>
       </c>
       <c r="F50" s="4">
@@ -10971,23 +12557,23 @@
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>J49*(1+B50)</f>
+        <f t="shared" si="11"/>
         <v>3098091.3012520745</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3098091.3012520745</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189228.01595375105</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990032E-2</v>
       </c>
       <c r="N50" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98992.346985243945</v>
       </c>
     </row>
@@ -11003,11 +12589,11 @@
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2214.5271052439998</v>
       </c>
       <c r="E51" s="4">
-        <f>E50*(1+B51)</f>
+        <f t="shared" si="10"/>
         <v>10711.370221477438</v>
       </c>
       <c r="F51" s="4">
@@ -11019,23 +12605,23 @@
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f>J50*(1+B51)</f>
+        <f t="shared" si="11"/>
         <v>3191034.0402896367</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3191034.0402896367</v>
       </c>
       <c r="L51" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>194904.85643236342</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.291126938498999E-2</v>
       </c>
       <c r="N51" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101962.11739480126</v>
       </c>
     </row>
@@ -11051,11 +12637,11 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2280.9629184013197</v>
       </c>
       <c r="E52" s="4">
-        <f>E51*(1+B52)</f>
+        <f t="shared" si="10"/>
         <v>11032.711328121763</v>
       </c>
       <c r="F52" s="4">
@@ -11067,23 +12653,23 @@
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f>J51*(1+B52)</f>
+        <f t="shared" si="11"/>
         <v>3286765.0614983258</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3286765.0614983258</v>
       </c>
       <c r="L52" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200752.0021253344</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N52" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105020.98091664532</v>
       </c>
     </row>
@@ -11099,11 +12685,11 @@
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2349.3918059533594</v>
       </c>
       <c r="E53" s="4">
-        <f>E52*(1+B53)</f>
+        <f t="shared" si="10"/>
         <v>11363.692667965415</v>
       </c>
       <c r="F53" s="4">
@@ -11115,23 +12701,23 @@
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <f>J52*(1+B53)</f>
+        <f t="shared" si="11"/>
         <v>3385368.0133432755</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3385368.0133432755</v>
       </c>
       <c r="L53" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206774.56218909443</v>
       </c>
       <c r="M53" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108171.61034414468</v>
       </c>
     </row>
@@ -11147,11 +12733,11 @@
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2419.8735601319604</v>
       </c>
       <c r="E54" s="4">
-        <f>E53*(1+B54)</f>
+        <f t="shared" si="10"/>
         <v>11704.603448004378</v>
       </c>
       <c r="F54" s="4">
@@ -11163,23 +12749,23 @@
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <f>J53*(1+B54)</f>
+        <f t="shared" si="11"/>
         <v>3486929.0537435738</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3486929.0537435738</v>
       </c>
       <c r="L54" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212977.79905476733</v>
       </c>
       <c r="M54" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990032E-2</v>
       </c>
       <c r="N54" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>111416.75865446901</v>
       </c>
     </row>
@@ -11195,11 +12781,11 @@
         <v>0</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2492.4697669359193</v>
       </c>
       <c r="E55" s="4">
-        <f>E54*(1+B55)</f>
+        <f t="shared" si="10"/>
         <v>12055.741551444509</v>
       </c>
       <c r="F55" s="4">
@@ -11211,23 +12797,23 @@
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <f>J54*(1+B55)</f>
+        <f t="shared" si="11"/>
         <v>3591536.925355881</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3591536.925355881</v>
       </c>
       <c r="L55" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>219367.13302641024</v>
       </c>
       <c r="M55" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N55" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114759.26141410308</v>
       </c>
     </row>
@@ -11243,11 +12829,11 @@
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2567.243859943997</v>
       </c>
       <c r="E56" s="4">
-        <f>E55*(1+B56)</f>
+        <f t="shared" si="10"/>
         <v>12417.413797987845</v>
       </c>
       <c r="F56" s="4">
@@ -11259,23 +12845,23 @@
         <v>0</v>
       </c>
       <c r="J56" s="5">
-        <f>J55*(1+B56)</f>
+        <f t="shared" si="11"/>
         <v>3699283.0331165576</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3699283.0331165576</v>
       </c>
       <c r="L56" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>225948.14701720281</v>
       </c>
       <c r="M56" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N56" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>118202.03925652617</v>
       </c>
     </row>
@@ -11291,11 +12877,11 @@
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2644.2611757423169</v>
       </c>
       <c r="E57" s="4">
-        <f>E56*(1+B57)</f>
+        <f t="shared" si="10"/>
         <v>12789.936211927481</v>
       </c>
       <c r="F57" s="4">
@@ -11307,23 +12893,23 @@
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <f>J56*(1+B57)</f>
+        <f t="shared" si="11"/>
         <v>3810261.5241100546</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3810261.5241100546</v>
       </c>
       <c r="L57" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>232726.59142771893</v>
       </c>
       <c r="M57" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N57" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121748.10043422197</v>
       </c>
     </row>
@@ -11339,11 +12925,11 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2723.5890110145865</v>
       </c>
       <c r="E58" s="4">
-        <f>E57*(1+B58)</f>
+        <f t="shared" si="10"/>
         <v>13173.634298285306</v>
       </c>
       <c r="F58" s="4">
@@ -11355,23 +12941,23 @@
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <f>J57*(1+B58)</f>
+        <f t="shared" si="11"/>
         <v>3924569.3698333562</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3924569.3698333562</v>
       </c>
       <c r="L58" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239708.38917055028</v>
       </c>
       <c r="M58" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990018E-2</v>
       </c>
       <c r="N58" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125400.54344724864</v>
       </c>
     </row>
@@ -11387,11 +12973,11 @@
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2805.2966813450244</v>
       </c>
       <c r="E59" s="4">
-        <f>E58*(1+B59)</f>
+        <f t="shared" si="10"/>
         <v>13568.843327233864</v>
       </c>
       <c r="F59" s="4">
@@ -11403,23 +12989,23 @@
         <v>0</v>
       </c>
       <c r="J59" s="5">
-        <f>J58*(1+B59)</f>
+        <f t="shared" si="11"/>
         <v>4042306.450928357</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4042306.450928357</v>
       </c>
       <c r="L59" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246899.64084566681</v>
       </c>
       <c r="M59" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990018E-2</v>
       </c>
       <c r="N59" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>129162.55975066609</v>
       </c>
     </row>
@@ -11435,11 +13021,11 @@
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2889.4555817853752</v>
       </c>
       <c r="E60" s="4">
-        <f>E59*(1+B60)</f>
+        <f t="shared" si="10"/>
         <v>13975.908627050881</v>
       </c>
       <c r="F60" s="4">
@@ -11451,23 +13037,23 @@
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <f>J59*(1+B60)</f>
+        <f t="shared" si="11"/>
         <v>4163575.6444562078</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4163575.6444562078</v>
       </c>
       <c r="L60" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>254306.63007103687</v>
       </c>
       <c r="M60" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990032E-2</v>
       </c>
       <c r="N60" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>133037.43654318608</v>
       </c>
     </row>
@@ -11483,11 +13069,11 @@
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2976.1392492389364</v>
       </c>
       <c r="E61" s="4">
-        <f>E60*(1+B61)</f>
+        <f t="shared" si="10"/>
         <v>14395.185885862409</v>
       </c>
       <c r="F61" s="4">
@@ -11499,23 +13085,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <f>J60*(1+B61)</f>
+        <f t="shared" si="11"/>
         <v>4288482.9137898944</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4288482.9137898944</v>
       </c>
       <c r="L61" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>261935.82897316833</v>
       </c>
       <c r="M61" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990115E-2</v>
       </c>
       <c r="N61" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>137028.55963948165</v>
       </c>
     </row>
@@ -11531,11 +13117,11 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3065.4234267161046</v>
       </c>
       <c r="E62" s="4">
-        <f>E61*(1+B62)</f>
+        <f t="shared" si="10"/>
         <v>14827.041462438281</v>
       </c>
       <c r="F62" s="4">
@@ -11547,23 +13133,23 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <f>J61*(1+B62)</f>
+        <f t="shared" si="11"/>
         <v>4417137.4012035914</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4417137.4012035914</v>
       </c>
       <c r="L62" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>269793.90384236304</v>
       </c>
       <c r="M62" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990032E-2</v>
       </c>
       <c r="N62" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>141139.41642866613</v>
       </c>
     </row>
@@ -11579,11 +13165,11 @@
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3157.386129517588</v>
       </c>
       <c r="E63" s="4">
-        <f>E62*(1+B63)</f>
+        <f t="shared" si="10"/>
         <v>15271.852706311431</v>
       </c>
       <c r="F63" s="4">
@@ -11595,23 +13181,23 @@
         <v>0</v>
       </c>
       <c r="J63" s="5">
-        <f>J62*(1+B63)</f>
+        <f t="shared" si="11"/>
         <v>4549651.5232396992</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4549651.5232396992</v>
       </c>
       <c r="L63" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>277887.72095763392</v>
       </c>
       <c r="M63" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990032E-2</v>
       </c>
       <c r="N63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>145373.59892152611</v>
       </c>
     </row>
@@ -11627,11 +13213,11 @@
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3252.1077134031157</v>
       </c>
       <c r="E64" s="4">
-        <f>E63*(1+B64)</f>
+        <f t="shared" si="10"/>
         <v>15730.008287500774</v>
       </c>
       <c r="F64" s="4">
@@ -11643,23 +13229,23 @@
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f>J63*(1+B64)</f>
+        <f t="shared" si="11"/>
         <v>4686141.06893689</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4686141.06893689</v>
       </c>
       <c r="L64" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>286224.35258636269</v>
       </c>
       <c r="M64" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384989976E-2</v>
       </c>
       <c r="N64" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>149734.80688917189</v>
       </c>
     </row>
@@ -11675,11 +13261,11 @@
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3349.6709448052093</v>
       </c>
       <c r="E65" s="4">
-        <f>E64*(1+B65)</f>
+        <f t="shared" si="10"/>
         <v>16201.908536125797</v>
       </c>
       <c r="F65" s="4">
@@ -11691,23 +13277,23 @@
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f>J64*(1+B65)</f>
+        <f t="shared" si="11"/>
         <v>4826725.3010049965</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4826725.3010049965</v>
       </c>
       <c r="L65" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>294811.08316395356</v>
       </c>
       <c r="M65" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384989976E-2</v>
       </c>
       <c r="N65" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154226.85109584703</v>
       </c>
     </row>
@@ -11723,11 +13309,11 @@
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3450.1610731493656</v>
       </c>
       <c r="E66" s="4">
-        <f>E65*(1+B66)</f>
+        <f t="shared" si="10"/>
         <v>16687.965792209572</v>
       </c>
       <c r="F66" s="4">
@@ -11739,23 +13325,23 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f>J65*(1+B66)</f>
+        <f t="shared" si="11"/>
         <v>4971527.0600351468</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K69" si="7">I66+J66</f>
+        <f t="shared" ref="K66:K69" si="12">I66+J66</f>
         <v>4971527.0600351468</v>
       </c>
       <c r="L66" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>303655.41565887269</v>
       </c>
       <c r="M66" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990087E-2</v>
       </c>
       <c r="N66" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158853.65662872247</v>
       </c>
     </row>
@@ -11771,11 +13357,11 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3553.6659053438466</v>
       </c>
       <c r="E67" s="4">
-        <f>E66*(1+B67)</f>
+        <f t="shared" si="10"/>
         <v>17188.604765975859</v>
       </c>
       <c r="F67" s="4">
@@ -11787,23 +13373,23 @@
         <v>0</v>
       </c>
       <c r="J67" s="5">
-        <f>J66*(1+B67)</f>
+        <f t="shared" si="11"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="L67" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>312765.07812863868</v>
       </c>
       <c r="M67" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2911269384990046E-2</v>
       </c>
       <c r="N67" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>163619.26632758413</v>
       </c>
     </row>
@@ -11819,11 +13405,11 @@
         <v>0</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3660.2758825041619</v>
       </c>
       <c r="E68" s="4">
-        <f>E67*(1+B68)</f>
+        <f t="shared" si="10"/>
         <v>17704.262908955134</v>
       </c>
       <c r="F68" s="4">
@@ -11835,23 +13421,23 @@
         <v>0</v>
       </c>
       <c r="J68" s="5">
-        <f>J67*(1+B68)</f>
+        <f t="shared" si="11"/>
         <v>5274293.0579912877</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5274293.0579912877</v>
       </c>
       <c r="L68" s="18">
-        <f t="shared" ref="L68:L69" si="8">K68-K67+12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="L68:L69" si="13">K68-K67+12*(C68+D68+E68)+F68</f>
         <v>322148.03047249804</v>
       </c>
       <c r="M68" s="19">
-        <f t="shared" ref="M68:M69" si="9">L68/K67</f>
+        <f t="shared" ref="M68:M69" si="14">L68/K67</f>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N68" s="18">
-        <f t="shared" ref="N68:N69" si="10">12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="N68:N69" si="15">12*(C68+D68+E68)+F68</f>
         <v>168527.84431741165</v>
       </c>
     </row>
@@ -11867,11 +13453,11 @@
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3770.0841589792867</v>
       </c>
       <c r="E69" s="4">
-        <f>E68*(1+B69)</f>
+        <f t="shared" si="10"/>
         <v>18235.39079622379</v>
       </c>
       <c r="F69" s="4">
@@ -11883,23 +13469,23 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f>J68*(1+B69)</f>
+        <f t="shared" si="11"/>
         <v>5432521.8497310262</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5432521.8497310262</v>
       </c>
       <c r="L69" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>331812.47138667258</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N69" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>173583.67964693403</v>
       </c>
     </row>
@@ -12001,7 +13587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83176ACA-3A5C-CE49-8DEB-19D6381A86F7}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -12284,7 +13870,7 @@
         <v>-585.60649999999998</v>
       </c>
       <c r="E6" s="4">
-        <f>E5*(1+B6)</f>
+        <f t="shared" ref="E6:E37" si="7">E5*(1+B6)</f>
         <v>2832.5</v>
       </c>
       <c r="F6" s="4">
@@ -12303,7 +13889,7 @@
         <v>-379387.06794382859</v>
       </c>
       <c r="J6" s="4">
-        <f>J5*(1+B6)</f>
+        <f t="shared" ref="J6:J37" si="8">J5*(1+B6)</f>
         <v>843832.65</v>
       </c>
       <c r="K6" s="4">
@@ -12334,11 +13920,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D69" si="7">D6*(1+B7)</f>
+        <f t="shared" ref="D7:D69" si="9">D6*(1+B7)</f>
         <v>-603.17469500000004</v>
       </c>
       <c r="E7" s="4">
-        <f>E6*(1+B7)</f>
+        <f t="shared" si="7"/>
         <v>2917.4749999999999</v>
       </c>
       <c r="F7" s="4">
@@ -12357,7 +13943,7 @@
         <v>-371568.72277947387</v>
       </c>
       <c r="J7" s="4">
-        <f>J6*(1+B7)</f>
+        <f t="shared" si="8"/>
         <v>869147.62950000004</v>
       </c>
       <c r="K7" s="4">
@@ -12388,11 +13974,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" si="9"/>
+        <v>-621.26993585000002</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="7"/>
-        <v>-621.26993585000002</v>
-      </c>
-      <c r="E8" s="4">
-        <f>E7*(1+B8)</f>
         <v>3004.9992499999998</v>
       </c>
       <c r="F8" s="4">
@@ -12411,7 +13997,7 @@
         <v>-363421.70307475864</v>
       </c>
       <c r="J8" s="4">
-        <f>J7*(1+B8)</f>
+        <f t="shared" si="8"/>
         <v>895222.0583850001</v>
       </c>
       <c r="K8" s="4">
@@ -12443,11 +14029,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D9" s="4">
+        <f t="shared" si="9"/>
+        <v>-639.90803392550004</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="7"/>
-        <v>-639.90803392550004</v>
-      </c>
-      <c r="E9" s="4">
-        <f>E8*(1+B9)</f>
         <v>3095.1492275000001</v>
       </c>
       <c r="F9" s="4">
@@ -12466,7 +14052,7 @@
         <v>-354932.19171733852</v>
       </c>
       <c r="J9" s="4">
-        <f>J8*(1+B9)</f>
+        <f t="shared" si="8"/>
         <v>922078.72013655014</v>
       </c>
       <c r="K9" s="4">
@@ -12498,11 +14084,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D10" s="4">
+        <f t="shared" si="9"/>
+        <v>-659.10527494326504</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="7"/>
-        <v>-659.10527494326504</v>
-      </c>
-      <c r="E10" s="4">
-        <f>E9*(1+B10)</f>
         <v>3188.0037043249999</v>
       </c>
       <c r="F10" s="4">
@@ -12521,7 +14107,7 @@
         <v>-346085.79073882458</v>
       </c>
       <c r="J10" s="4">
-        <f>J9*(1+B10)</f>
+        <f t="shared" si="8"/>
         <v>949741.08174064662</v>
       </c>
       <c r="K10" s="4">
@@ -12553,11 +14139,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D11" s="4">
+        <f t="shared" si="9"/>
+        <v>-678.87843319156298</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="7"/>
-        <v>-678.87843319156298</v>
-      </c>
-      <c r="E11" s="4">
-        <f>E10*(1+B11)</f>
         <v>3283.64381545475</v>
       </c>
       <c r="F11" s="4">
@@ -12576,7 +14162,7 @@
         <v>-336867.49689624092</v>
       </c>
       <c r="J11" s="4">
-        <f>J10*(1+B11)</f>
+        <f t="shared" si="8"/>
         <v>978233.31419286609</v>
       </c>
       <c r="K11" s="4">
@@ -12608,11 +14194,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D12" s="4">
+        <f t="shared" si="9"/>
+        <v>-699.24478618730984</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="7"/>
-        <v>-699.24478618730984</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E11*(1+B12)</f>
         <v>3382.1531299183926</v>
       </c>
       <c r="F12" s="4">
@@ -12631,7 +14217,7 @@
         <v>-327261.67622695281</v>
       </c>
       <c r="J12" s="4">
-        <f>J11*(1+B12)</f>
+        <f t="shared" si="8"/>
         <v>1007580.3136186521</v>
       </c>
       <c r="K12" s="4">
@@ -12663,11 +14249,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D13" s="4">
+        <f t="shared" si="9"/>
+        <v>-720.22212977292918</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="7"/>
-        <v>-720.22212977292918</v>
-      </c>
-      <c r="E13" s="4">
-        <f>E12*(1+B13)</f>
         <v>3483.6177238159444</v>
       </c>
       <c r="F13" s="4">
@@ -12686,7 +14272,7 @@
         <v>-317252.03753391473</v>
       </c>
       <c r="J13" s="4">
-        <f>J12*(1+B13)</f>
+        <f t="shared" si="8"/>
         <v>1037807.7230272116</v>
       </c>
       <c r="K13" s="4">
@@ -12718,11 +14304,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D14" s="4">
+        <f t="shared" si="9"/>
+        <v>-741.82879366611712</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="7"/>
-        <v>-741.82879366611712</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E13*(1+B14)</f>
         <v>3588.1262555304229</v>
       </c>
       <c r="F14" s="4">
@@ -12741,7 +14327,7 @@
         <v>-306821.60475626518</v>
       </c>
       <c r="J14" s="4">
-        <f>J13*(1+B14)</f>
+        <f t="shared" si="8"/>
         <v>1068941.954718028</v>
       </c>
       <c r="K14" s="4">
@@ -12773,11 +14359,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D15" s="4">
+        <f t="shared" si="9"/>
+        <v>-764.08365747610071</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="7"/>
-        <v>-764.08365747610071</v>
-      </c>
-      <c r="E15" s="4">
-        <f>E14*(1+B15)</f>
         <v>3695.7700431963358</v>
       </c>
       <c r="F15" s="4">
@@ -12796,7 +14382,7 @@
         <v>-295952.68817841378</v>
       </c>
       <c r="J15" s="4">
-        <f>J14*(1+B15)</f>
+        <f t="shared" si="8"/>
         <v>1101010.2133595687</v>
       </c>
       <c r="K15" s="4">
@@ -12828,11 +14414,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D16" s="4">
+        <f t="shared" si="9"/>
+        <v>-787.00616720038374</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="7"/>
-        <v>-787.00616720038374</v>
-      </c>
-      <c r="E16" s="4">
-        <f>E15*(1+B16)</f>
         <v>3806.6431444922259</v>
       </c>
       <c r="F16" s="4">
@@ -12851,7 +14437,7 @@
         <v>-284626.85442878905</v>
       </c>
       <c r="J16" s="4">
-        <f>J15*(1+B16)</f>
+        <f t="shared" si="8"/>
         <v>1134040.5197603558</v>
       </c>
       <c r="K16" s="4">
@@ -12883,11 +14469,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D17" s="4">
+        <f t="shared" si="9"/>
+        <v>-810.61635221639528</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="7"/>
-        <v>-810.61635221639528</v>
-      </c>
-      <c r="E17" s="4">
-        <f>E16*(1+B17)</f>
         <v>3920.8424388269927</v>
       </c>
       <c r="F17" s="4">
@@ -12906,7 +14492,7 @@
         <v>-272824.89521736838</v>
       </c>
       <c r="J17" s="4">
-        <f>J16*(1+B17)</f>
+        <f t="shared" si="8"/>
         <v>1168061.7353531665</v>
       </c>
       <c r="K17" s="4">
@@ -12938,11 +14524,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D18" s="4">
+        <f t="shared" si="9"/>
+        <v>-834.93484278288713</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="7"/>
-        <v>-834.93484278288713</v>
-      </c>
-      <c r="E18" s="4">
-        <f>E17*(1+B18)</f>
         <v>4038.4677119918028</v>
       </c>
       <c r="F18" s="4">
@@ -12961,7 +14547,7 @@
         <v>-260526.79475896689</v>
       </c>
       <c r="J18" s="4">
-        <f>J17*(1+B18)</f>
+        <f t="shared" si="8"/>
         <v>1203103.5874137615</v>
       </c>
       <c r="K18" s="4">
@@ -12993,11 +14579,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D19" s="4">
+        <f t="shared" si="9"/>
+        <v>-859.98288806637379</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="7"/>
-        <v>-859.98288806637379</v>
-      </c>
-      <c r="E19" s="4">
-        <f>E18*(1+B19)</f>
         <v>4159.6217433515567</v>
       </c>
       <c r="F19" s="4">
@@ -13016,7 +14602,7 @@
         <v>-247711.69582703893</v>
       </c>
       <c r="J19" s="4">
-        <f>J18*(1+B19)</f>
+        <f t="shared" si="8"/>
         <v>1239196.6950361745</v>
       </c>
       <c r="K19" s="4">
@@ -13048,11 +14634,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D20" s="4">
+        <f t="shared" si="9"/>
+        <v>-885.78237470836507</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="7"/>
-        <v>-885.78237470836507</v>
-      </c>
-      <c r="E20" s="4">
-        <f>E19*(1+B20)</f>
         <v>4284.4103956521039</v>
       </c>
       <c r="F20" s="4">
@@ -13071,7 +14657,7 @@
         <v>-234357.86438041826</v>
       </c>
       <c r="J20" s="4">
-        <f>J19*(1+B20)</f>
+        <f t="shared" si="8"/>
         <v>1276372.5958872598</v>
       </c>
       <c r="K20" s="4">
@@ -13103,11 +14689,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D21" s="4">
+        <f t="shared" si="9"/>
+        <v>-912.35584594961608</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="7"/>
-        <v>-912.35584594961608</v>
-      </c>
-      <c r="E21" s="4">
-        <f>E20*(1+B21)</f>
         <v>4412.9427075216672</v>
       </c>
       <c r="F21" s="4">
@@ -13126,7 +14712,7 @@
         <v>-220442.65270300634</v>
       </c>
       <c r="J21" s="5">
-        <f>J20*(1+B21)</f>
+        <f t="shared" si="8"/>
         <v>1314663.7737638776</v>
       </c>
       <c r="K21" s="5">
@@ -13158,11 +14744,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D22" s="4">
+        <f t="shared" si="9"/>
+        <v>-939.72652132810458</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="7"/>
-        <v>-939.72652132810458</v>
-      </c>
-      <c r="E22" s="4">
-        <f>E21*(1+B22)</f>
         <v>4545.330988747317</v>
       </c>
       <c r="F22" s="4">
@@ -13181,7 +14767,7 @@
         <v>-205942.46099389318</v>
       </c>
       <c r="J22" s="5">
-        <f>J21*(1+B22)</f>
+        <f t="shared" si="8"/>
         <v>1354103.6869767939</v>
       </c>
       <c r="K22" s="5">
@@ -13213,11 +14799,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D23" s="4">
+        <f t="shared" si="9"/>
+        <v>-967.9183169679477</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="7"/>
-        <v>-967.9183169679477</v>
-      </c>
-      <c r="E23" s="4">
-        <f>E22*(1+B23)</f>
         <v>4681.6909184097367</v>
       </c>
       <c r="F23" s="4">
@@ -13236,7 +14822,7 @@
         <v>-190832.69734277076</v>
       </c>
       <c r="J23" s="5">
-        <f>J22*(1+B23)</f>
+        <f t="shared" si="8"/>
         <v>1394726.7975860978</v>
       </c>
       <c r="K23" s="5">
@@ -13268,11 +14854,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D24" s="4">
+        <f t="shared" si="9"/>
+        <v>-996.95586647698622</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="7"/>
-        <v>-996.95586647698622</v>
-      </c>
-      <c r="E24" s="4">
-        <f>E23*(1+B24)</f>
         <v>4822.1416459620286</v>
       </c>
       <c r="F24" s="4">
@@ -13291,7 +14877,7 @@
         <v>-175087.73602275646</v>
       </c>
       <c r="J24" s="5">
-        <f>J23*(1+B24)</f>
+        <f t="shared" si="8"/>
         <v>1436568.6015136808</v>
       </c>
       <c r="K24" s="5">
@@ -13323,11 +14909,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D25" s="4">
+        <f t="shared" si="9"/>
+        <v>-1026.8645424712959</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="7"/>
-        <v>-1026.8645424712959</v>
-      </c>
-      <c r="E25" s="4">
-        <f>E24*(1+B25)</f>
         <v>4966.8058953408899</v>
       </c>
       <c r="F25" s="4">
@@ -13346,7 +14932,7 @@
         <v>-158680.8740298929</v>
       </c>
       <c r="J25" s="5">
-        <f>J24*(1+B25)</f>
+        <f t="shared" si="8"/>
         <v>1479665.6595590913</v>
       </c>
       <c r="K25" s="5">
@@ -13378,11 +14964,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D26" s="4">
+        <f t="shared" si="9"/>
+        <v>-1057.6704787454348</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="7"/>
-        <v>-1057.6704787454348</v>
-      </c>
-      <c r="E26" s="4">
-        <f>E25*(1+B26)</f>
         <v>5115.8100722011168</v>
       </c>
       <c r="F26" s="4">
@@ -13401,7 +14987,7 @@
         <v>-141584.28579561834</v>
       </c>
       <c r="J26" s="5">
-        <f>J25*(1+B26)</f>
+        <f t="shared" si="8"/>
         <v>1524055.6293458641</v>
       </c>
       <c r="K26" s="5">
@@ -13433,11 +15019,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D27" s="4">
+        <f t="shared" si="9"/>
+        <v>-1089.4005931077979</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="7"/>
-        <v>-1089.4005931077979</v>
-      </c>
-      <c r="E27" s="4">
-        <f>E26*(1+B27)</f>
         <v>5269.2843743671501</v>
       </c>
       <c r="F27" s="4">
@@ -13456,7 +15042,7 @@
         <v>-123768.97599539728</v>
       </c>
       <c r="J27" s="5">
-        <f>J26*(1+B27)</f>
+        <f t="shared" si="8"/>
         <v>1569777.2982262401</v>
       </c>
       <c r="K27" s="5">
@@ -13488,11 +15074,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D28" s="4">
+        <f t="shared" si="9"/>
+        <v>-1122.0826109010318</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="7"/>
-        <v>-1122.0826109010318</v>
-      </c>
-      <c r="E28" s="4">
-        <f>E27*(1+B28)</f>
         <v>5427.3629055981646</v>
       </c>
       <c r="F28" s="4">
@@ -13511,7 +15097,7 @@
         <v>-105204.73037347991</v>
       </c>
       <c r="J28" s="5">
-        <f>J27*(1+B28)</f>
+        <f t="shared" si="8"/>
         <v>1616870.6171730272</v>
       </c>
       <c r="K28" s="5">
@@ -13543,11 +15129,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D29" s="4">
+        <f t="shared" si="9"/>
+        <v>-1155.7450892280629</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="7"/>
-        <v>-1155.7450892280629</v>
-      </c>
-      <c r="E29" s="4">
-        <f>E28*(1+B29)</f>
         <v>5590.1837927661099</v>
       </c>
       <c r="F29" s="4">
@@ -13566,7 +15152,7 @@
         <v>-85860.064500389155</v>
       </c>
       <c r="J29" s="5">
-        <f>J28*(1+B29)</f>
+        <f t="shared" si="8"/>
         <v>1665376.7356882181</v>
       </c>
       <c r="K29" s="5">
@@ -13598,11 +15184,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D30" s="4">
+        <f t="shared" si="9"/>
+        <v>-1190.4174419049048</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="7"/>
-        <v>-1190.4174419049048</v>
-      </c>
-      <c r="E30" s="4">
-        <f>E29*(1+B30)</f>
         <v>5757.8893065490938</v>
       </c>
       <c r="F30" s="4">
@@ -13621,7 +15207,7 @@
         <v>-65702.170376228401</v>
       </c>
       <c r="J30" s="5">
-        <f>J29*(1+B30)</f>
+        <f t="shared" si="8"/>
         <v>1715338.0377588647</v>
       </c>
       <c r="K30" s="5">
@@ -13653,11 +15239,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D31" s="4">
+        <f t="shared" si="9"/>
+        <v>-1226.129965162052</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="7"/>
-        <v>-1226.129965162052</v>
-      </c>
-      <c r="E31" s="4">
-        <f>E30*(1+B31)</f>
         <v>5930.625985745567</v>
       </c>
       <c r="F31" s="4">
@@ -13676,7 +15262,7 @@
         <v>-44696.860789253056</v>
       </c>
       <c r="J31" s="5">
-        <f>J30*(1+B31)</f>
+        <f t="shared" si="8"/>
         <v>1766798.1788916306</v>
       </c>
       <c r="K31" s="5">
@@ -13708,11 +15294,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D32" s="4">
+        <f t="shared" si="9"/>
+        <v>-1262.9138641169136</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="7"/>
-        <v>-1262.9138641169136</v>
-      </c>
-      <c r="E32" s="4">
-        <f>E31*(1+B32)</f>
         <v>6108.5447653179344</v>
       </c>
       <c r="F32" s="4">
@@ -13731,7 +15317,7 @@
         <v>-22808.511335336185</v>
       </c>
       <c r="J32" s="5">
-        <f>J31*(1+B32)</f>
+        <f t="shared" si="8"/>
         <v>1819802.1242583797</v>
       </c>
       <c r="K32" s="5">
@@ -13763,11 +15349,11 @@
         <v>-1943.45</v>
       </c>
       <c r="D33" s="4">
+        <f t="shared" si="9"/>
+        <v>-1300.801280040421</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="7"/>
-        <v>-1300.801280040421</v>
-      </c>
-      <c r="E33" s="4">
-        <f>E32*(1+B33)</f>
         <v>6291.8011082774728</v>
       </c>
       <c r="F33" s="4">
@@ -13786,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <f>J32*(1+B33)</f>
+        <f t="shared" si="8"/>
         <v>1874396.1879861311</v>
       </c>
       <c r="K33" s="5">
@@ -13818,11 +15404,11 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
+        <f t="shared" si="9"/>
+        <v>-1339.8253184416337</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="7"/>
-        <v>-1339.8253184416337</v>
-      </c>
-      <c r="E34" s="4">
-        <f>E33*(1+B34)</f>
         <v>6480.5551415257969</v>
       </c>
       <c r="F34" s="4">
@@ -13834,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f>J33*(1+B34)</f>
+        <f t="shared" si="8"/>
         <v>1930628.073625715</v>
       </c>
       <c r="K34" s="5">
@@ -13866,11 +15452,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
+        <f t="shared" si="9"/>
+        <v>-1380.0200779948827</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="7"/>
-        <v>-1380.0200779948827</v>
-      </c>
-      <c r="E35" s="4">
-        <f>E34*(1+B35)</f>
         <v>6674.9717957715711</v>
       </c>
       <c r="F35" s="4">
@@ -13882,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <f>J34*(1+B35)</f>
+        <f t="shared" si="8"/>
         <v>1988546.9158344865</v>
       </c>
       <c r="K35" s="5">
@@ -13914,11 +15500,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
+        <f t="shared" si="9"/>
+        <v>-1421.4206803347292</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="7"/>
-        <v>-1421.4206803347292</v>
-      </c>
-      <c r="E36" s="4">
-        <f>E35*(1+B36)</f>
         <v>6875.2209496447185</v>
       </c>
       <c r="F36" s="4">
@@ -13930,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <f>J35*(1+B36)</f>
+        <f t="shared" si="8"/>
         <v>2048203.3233095212</v>
       </c>
       <c r="K36" s="5">
@@ -13962,11 +15548,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
+        <f t="shared" si="9"/>
+        <v>-1464.0633007447711</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="7"/>
-        <v>-1464.0633007447711</v>
-      </c>
-      <c r="E37" s="4">
-        <f>E36*(1+B37)</f>
         <v>7081.4775781340604</v>
       </c>
       <c r="F37" s="4">
@@ -13978,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <f>J36*(1+B37)</f>
+        <f t="shared" si="8"/>
         <v>2109649.423008807</v>
       </c>
       <c r="K37" s="5">
@@ -14010,11 +15596,11 @@
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1507.9851997671144</v>
       </c>
       <c r="E38" s="4">
-        <f>E37*(1+B38)</f>
+        <f t="shared" ref="E38:E69" si="10">E37*(1+B38)</f>
         <v>7293.9219054780824</v>
       </c>
       <c r="F38" s="4">
@@ -14026,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f>J37*(1+B38)</f>
+        <f t="shared" ref="J38:J69" si="11">J37*(1+B38)</f>
         <v>2172938.9056990715</v>
       </c>
       <c r="K38" s="5">
@@ -14058,11 +15644,11 @@
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1553.2247557601279</v>
       </c>
       <c r="E39" s="4">
-        <f>E38*(1+B39)</f>
+        <f t="shared" si="10"/>
         <v>7512.739562642425</v>
       </c>
       <c r="F39" s="4">
@@ -14074,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <f>J38*(1+B39)</f>
+        <f t="shared" si="11"/>
         <v>2238127.0728700436</v>
       </c>
       <c r="K39" s="5">
@@ -14106,11 +15692,11 @@
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1599.8214984329318</v>
       </c>
       <c r="E40" s="4">
-        <f>E39*(1+B40)</f>
+        <f t="shared" si="10"/>
         <v>7738.1217495216979</v>
       </c>
       <c r="F40" s="4">
@@ -14122,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <f>J39*(1+B40)</f>
+        <f t="shared" si="11"/>
         <v>2305270.885056145</v>
       </c>
       <c r="K40" s="5">
@@ -14154,11 +15740,11 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1647.8161433859198</v>
       </c>
       <c r="E41" s="4">
-        <f>E40*(1+B41)</f>
+        <f t="shared" si="10"/>
         <v>7970.2654020073487</v>
       </c>
       <c r="F41" s="4">
@@ -14170,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <f>J40*(1+B41)</f>
+        <f t="shared" si="11"/>
         <v>2374429.0116078295</v>
       </c>
       <c r="K41" s="5">
@@ -14202,11 +15788,11 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1697.2506276874974</v>
       </c>
       <c r="E42" s="4">
-        <f>E41*(1+B42)</f>
+        <f t="shared" si="10"/>
         <v>8209.3733640675691</v>
       </c>
       <c r="F42" s="4">
@@ -14218,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="5">
-        <f>J41*(1+B42)</f>
+        <f t="shared" si="11"/>
         <v>2445661.8819560646</v>
       </c>
       <c r="K42" s="5">
@@ -14250,11 +15836,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1748.1681465181223</v>
       </c>
       <c r="E43" s="4">
-        <f>E42*(1+B43)</f>
+        <f t="shared" si="10"/>
         <v>8455.6545649895961</v>
       </c>
       <c r="F43" s="4">
@@ -14266,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="5">
-        <f>J42*(1+B43)</f>
+        <f t="shared" si="11"/>
         <v>2519031.7384147467</v>
       </c>
       <c r="K43" s="5">
@@ -14298,11 +15884,11 @@
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1800.6131909136659</v>
       </c>
       <c r="E44" s="4">
-        <f>E43*(1+B44)</f>
+        <f t="shared" si="10"/>
         <v>8709.3242019392837</v>
       </c>
       <c r="F44" s="4">
@@ -14314,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <f>J43*(1+B44)</f>
+        <f t="shared" si="11"/>
         <v>2594602.6905671894</v>
       </c>
       <c r="K44" s="5">
@@ -14346,11 +15932,11 @@
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1854.631586641076</v>
       </c>
       <c r="E45" s="4">
-        <f>E44*(1+B45)</f>
+        <f t="shared" si="10"/>
         <v>8970.603927997463</v>
       </c>
       <c r="F45" s="4">
@@ -14362,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f>J44*(1+B45)</f>
+        <f t="shared" si="11"/>
         <v>2672440.7712842049</v>
       </c>
       <c r="K45" s="5">
@@ -14394,11 +15980,11 @@
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1910.2705342403083</v>
       </c>
       <c r="E46" s="4">
-        <f>E45*(1+B46)</f>
+        <f t="shared" si="10"/>
         <v>9239.7220458373868</v>
       </c>
       <c r="F46" s="4">
@@ -14410,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <f>J45*(1+B46)</f>
+        <f t="shared" si="11"/>
         <v>2752613.994422731</v>
       </c>
       <c r="K46" s="5">
@@ -14442,11 +16028,11 @@
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1967.5786502675176</v>
       </c>
       <c r="E47" s="4">
-        <f>E46*(1+B47)</f>
+        <f t="shared" si="10"/>
         <v>9516.9137072125086</v>
       </c>
       <c r="F47" s="4">
@@ -14458,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <f>J46*(1+B47)</f>
+        <f t="shared" si="11"/>
         <v>2835192.4142554128</v>
       </c>
       <c r="K47" s="5">
@@ -14490,11 +16076,11 @@
         <v>0</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2026.606009775543</v>
       </c>
       <c r="E48" s="4">
-        <f>E47*(1+B48)</f>
+        <f t="shared" si="10"/>
         <v>9802.4211184288833</v>
       </c>
       <c r="F48" s="4">
@@ -14506,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <f>J47*(1+B48)</f>
+        <f t="shared" si="11"/>
         <v>2920248.186683075</v>
       </c>
       <c r="K48" s="5">
@@ -14538,11 +16124,11 @@
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2087.4041900688094</v>
       </c>
       <c r="E49" s="4">
-        <f>E48*(1+B49)</f>
+        <f t="shared" si="10"/>
         <v>10096.49375198175</v>
       </c>
       <c r="F49" s="4">
@@ -14554,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>J48*(1+B49)</f>
+        <f t="shared" si="11"/>
         <v>3007855.6322835675</v>
       </c>
       <c r="K49" s="5">
@@ -14586,11 +16172,11 @@
         <v>0</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2150.0263157708737</v>
       </c>
       <c r="E50" s="4">
-        <f>E49*(1+B50)</f>
+        <f t="shared" si="10"/>
         <v>10399.388564541203</v>
       </c>
       <c r="F50" s="4">
@@ -14602,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>J49*(1+B50)</f>
+        <f t="shared" si="11"/>
         <v>3098091.3012520745</v>
       </c>
       <c r="K50" s="5">
@@ -14634,11 +16220,11 @@
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2214.5271052439998</v>
       </c>
       <c r="E51" s="4">
-        <f>E50*(1+B51)</f>
+        <f t="shared" si="10"/>
         <v>10711.370221477438</v>
       </c>
       <c r="F51" s="4">
@@ -14650,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f>J50*(1+B51)</f>
+        <f t="shared" si="11"/>
         <v>3191034.0402896367</v>
       </c>
       <c r="K51" s="5">
@@ -14682,11 +16268,11 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2280.9629184013197</v>
       </c>
       <c r="E52" s="4">
-        <f>E51*(1+B52)</f>
+        <f t="shared" si="10"/>
         <v>11032.711328121763</v>
       </c>
       <c r="F52" s="4">
@@ -14698,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f>J51*(1+B52)</f>
+        <f t="shared" si="11"/>
         <v>3286765.0614983258</v>
       </c>
       <c r="K52" s="5">
@@ -14730,11 +16316,11 @@
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2349.3918059533594</v>
       </c>
       <c r="E53" s="4">
-        <f>E52*(1+B53)</f>
+        <f t="shared" si="10"/>
         <v>11363.692667965415</v>
       </c>
       <c r="F53" s="4">
@@ -14746,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <f>J52*(1+B53)</f>
+        <f t="shared" si="11"/>
         <v>3385368.0133432755</v>
       </c>
       <c r="K53" s="5">
@@ -14778,11 +16364,11 @@
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2419.8735601319604</v>
       </c>
       <c r="E54" s="4">
-        <f>E53*(1+B54)</f>
+        <f t="shared" si="10"/>
         <v>11704.603448004378</v>
       </c>
       <c r="F54" s="4">
@@ -14794,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <f>J53*(1+B54)</f>
+        <f t="shared" si="11"/>
         <v>3486929.0537435738</v>
       </c>
       <c r="K54" s="5">
@@ -14826,11 +16412,11 @@
         <v>0</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2492.4697669359193</v>
       </c>
       <c r="E55" s="4">
-        <f>E54*(1+B55)</f>
+        <f t="shared" si="10"/>
         <v>12055.741551444509</v>
       </c>
       <c r="F55" s="4">
@@ -14842,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <f>J54*(1+B55)</f>
+        <f t="shared" si="11"/>
         <v>3591536.925355881</v>
       </c>
       <c r="K55" s="5">
@@ -14874,11 +16460,11 @@
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2567.243859943997</v>
       </c>
       <c r="E56" s="4">
-        <f>E55*(1+B56)</f>
+        <f t="shared" si="10"/>
         <v>12417.413797987845</v>
       </c>
       <c r="F56" s="4">
@@ -14890,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="5">
-        <f>J55*(1+B56)</f>
+        <f t="shared" si="11"/>
         <v>3699283.0331165576</v>
       </c>
       <c r="K56" s="5">
@@ -14922,11 +16508,11 @@
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2644.2611757423169</v>
       </c>
       <c r="E57" s="4">
-        <f>E56*(1+B57)</f>
+        <f t="shared" si="10"/>
         <v>12789.936211927481</v>
       </c>
       <c r="F57" s="4">
@@ -14938,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <f>J56*(1+B57)</f>
+        <f t="shared" si="11"/>
         <v>3810261.5241100546</v>
       </c>
       <c r="K57" s="5">
@@ -14970,11 +16556,11 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2723.5890110145865</v>
       </c>
       <c r="E58" s="4">
-        <f>E57*(1+B58)</f>
+        <f t="shared" si="10"/>
         <v>13173.634298285306</v>
       </c>
       <c r="F58" s="4">
@@ -14986,7 +16572,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <f>J57*(1+B58)</f>
+        <f t="shared" si="11"/>
         <v>3924569.3698333562</v>
       </c>
       <c r="K58" s="5">
@@ -15018,11 +16604,11 @@
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2805.2966813450244</v>
       </c>
       <c r="E59" s="4">
-        <f>E58*(1+B59)</f>
+        <f t="shared" si="10"/>
         <v>13568.843327233864</v>
       </c>
       <c r="F59" s="4">
@@ -15034,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="5">
-        <f>J58*(1+B59)</f>
+        <f t="shared" si="11"/>
         <v>4042306.450928357</v>
       </c>
       <c r="K59" s="5">
@@ -15066,11 +16652,11 @@
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2889.4555817853752</v>
       </c>
       <c r="E60" s="4">
-        <f>E59*(1+B60)</f>
+        <f t="shared" si="10"/>
         <v>13975.908627050881</v>
       </c>
       <c r="F60" s="4">
@@ -15082,7 +16668,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <f>J59*(1+B60)</f>
+        <f t="shared" si="11"/>
         <v>4163575.6444562078</v>
       </c>
       <c r="K60" s="5">
@@ -15114,11 +16700,11 @@
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2976.1392492389364</v>
       </c>
       <c r="E61" s="4">
-        <f>E60*(1+B61)</f>
+        <f t="shared" si="10"/>
         <v>14395.185885862409</v>
       </c>
       <c r="F61" s="4">
@@ -15130,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <f>J60*(1+B61)</f>
+        <f t="shared" si="11"/>
         <v>4288482.9137898944</v>
       </c>
       <c r="K61" s="5">
@@ -15162,11 +16748,11 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3065.4234267161046</v>
       </c>
       <c r="E62" s="4">
-        <f>E61*(1+B62)</f>
+        <f t="shared" si="10"/>
         <v>14827.041462438281</v>
       </c>
       <c r="F62" s="4">
@@ -15178,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <f>J61*(1+B62)</f>
+        <f t="shared" si="11"/>
         <v>4417137.4012035914</v>
       </c>
       <c r="K62" s="5">
@@ -15210,11 +16796,11 @@
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3157.386129517588</v>
       </c>
       <c r="E63" s="4">
-        <f>E62*(1+B63)</f>
+        <f t="shared" si="10"/>
         <v>15271.852706311431</v>
       </c>
       <c r="F63" s="4">
@@ -15226,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="5">
-        <f>J62*(1+B63)</f>
+        <f t="shared" si="11"/>
         <v>4549651.5232396992</v>
       </c>
       <c r="K63" s="5">
@@ -15258,11 +16844,11 @@
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3252.1077134031157</v>
       </c>
       <c r="E64" s="4">
-        <f>E63*(1+B64)</f>
+        <f t="shared" si="10"/>
         <v>15730.008287500774</v>
       </c>
       <c r="F64" s="4">
@@ -15274,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f>J63*(1+B64)</f>
+        <f t="shared" si="11"/>
         <v>4686141.06893689</v>
       </c>
       <c r="K64" s="5">
@@ -15306,11 +16892,11 @@
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3349.6709448052093</v>
       </c>
       <c r="E65" s="4">
-        <f>E64*(1+B65)</f>
+        <f t="shared" si="10"/>
         <v>16201.908536125797</v>
       </c>
       <c r="F65" s="4">
@@ -15322,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f>J64*(1+B65)</f>
+        <f t="shared" si="11"/>
         <v>4826725.3010049965</v>
       </c>
       <c r="K65" s="5">
@@ -15354,11 +16940,11 @@
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3450.1610731493656</v>
       </c>
       <c r="E66" s="4">
-        <f>E65*(1+B66)</f>
+        <f t="shared" si="10"/>
         <v>16687.965792209572</v>
       </c>
       <c r="F66" s="4">
@@ -15370,11 +16956,11 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f>J65*(1+B66)</f>
+        <f t="shared" si="11"/>
         <v>4971527.0600351468</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K69" si="8">I66+J66</f>
+        <f t="shared" ref="K66:K69" si="12">I66+J66</f>
         <v>4971527.0600351468</v>
       </c>
       <c r="L66" s="18">
@@ -15402,11 +16988,11 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3553.6659053438466</v>
       </c>
       <c r="E67" s="4">
-        <f>E66*(1+B67)</f>
+        <f t="shared" si="10"/>
         <v>17188.604765975859</v>
       </c>
       <c r="F67" s="4">
@@ -15418,11 +17004,11 @@
         <v>0</v>
       </c>
       <c r="J67" s="5">
-        <f>J66*(1+B67)</f>
+        <f t="shared" si="11"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="L67" s="18">
@@ -15450,11 +17036,11 @@
         <v>0</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3660.2758825041619</v>
       </c>
       <c r="E68" s="4">
-        <f>E67*(1+B68)</f>
+        <f t="shared" si="10"/>
         <v>17704.262908955134</v>
       </c>
       <c r="F68" s="4">
@@ -15466,23 +17052,23 @@
         <v>0</v>
       </c>
       <c r="J68" s="5">
-        <f>J67*(1+B68)</f>
+        <f t="shared" si="11"/>
         <v>5274293.0579912877</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5274293.0579912877</v>
       </c>
       <c r="L68" s="18">
-        <f t="shared" ref="L68:L69" si="9">K68-K67+12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="L68:L69" si="13">K68-K67+12*(C68+D68+E68)+F68</f>
         <v>322148.03047249804</v>
       </c>
       <c r="M68" s="19">
-        <f t="shared" ref="M68:M69" si="10">L68/K67</f>
+        <f t="shared" ref="M68:M69" si="14">L68/K67</f>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N68" s="18">
-        <f t="shared" ref="N68:N69" si="11">12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="N68:N69" si="15">12*(C68+D68+E68)+F68</f>
         <v>168527.84431741165</v>
       </c>
     </row>
@@ -15498,11 +17084,11 @@
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3770.0841589792867</v>
       </c>
       <c r="E69" s="4">
-        <f>E68*(1+B69)</f>
+        <f t="shared" si="10"/>
         <v>18235.39079622379</v>
       </c>
       <c r="F69" s="4">
@@ -15514,23 +17100,23 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f>J68*(1+B69)</f>
+        <f t="shared" si="11"/>
         <v>5432521.8497310262</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5432521.8497310262</v>
       </c>
       <c r="L69" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>331812.47138667258</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N69" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>173583.67964693403</v>
       </c>
     </row>
@@ -15632,8 +17218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2522BE3F-D4EA-5C43-8E12-B7138C1F7228}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="J1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15915,7 +17501,7 @@
         <v>-585.60649999999998</v>
       </c>
       <c r="E6" s="4">
-        <f>E5*(1+B6)</f>
+        <f t="shared" ref="E6:E37" si="6">E5*(1+B6)</f>
         <v>2832.5</v>
       </c>
       <c r="F6" s="4">
@@ -15930,11 +17516,11 @@
         <v>24</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:I34" si="6">-398000*((1+G6)^360-(1+G6)^H6)/((1+G6)^360-1)</f>
+        <f t="shared" ref="I6:I34" si="7">-398000*((1+G6)^360-(1+G6)^H6)/((1+G6)^360-1)</f>
         <v>-383084.12767243449</v>
       </c>
       <c r="J6" s="4">
-        <f>J5*(1+B6)</f>
+        <f t="shared" ref="J6:J37" si="8">J5*(1+B6)</f>
         <v>843832.65</v>
       </c>
       <c r="K6" s="4">
@@ -15965,11 +17551,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D69" si="7">D6*(1+B7)</f>
+        <f t="shared" ref="D7:D69" si="9">D6*(1+B7)</f>
         <v>-603.17469500000004</v>
       </c>
       <c r="E7" s="4">
-        <f>E6*(1+B7)</f>
+        <f t="shared" si="6"/>
         <v>2917.4749999999999</v>
       </c>
       <c r="F7" s="4">
@@ -15984,11 +17570,11 @@
         <v>36</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-375196.73365441494</v>
       </c>
       <c r="J7" s="4">
-        <f>J6*(1+B7)</f>
+        <f t="shared" si="8"/>
         <v>869147.62950000004</v>
       </c>
       <c r="K7" s="4">
@@ -16019,11 +17605,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-621.26993585000002</v>
       </c>
       <c r="E8" s="4">
-        <f>E7*(1+B8)</f>
+        <f t="shared" si="6"/>
         <v>3004.9992499999998</v>
       </c>
       <c r="F8" s="4">
@@ -16038,11 +17624,11 @@
         <v>48</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-367008.42535967031</v>
       </c>
       <c r="J8" s="4">
-        <f>J7*(1+B8)</f>
+        <f t="shared" si="8"/>
         <v>895222.0583850001</v>
       </c>
       <c r="K8" s="4">
@@ -16074,11 +17660,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-639.90803392550004</v>
       </c>
       <c r="E9" s="4">
-        <f>E8*(1+B9)</f>
+        <f t="shared" si="6"/>
         <v>3095.1492275000001</v>
       </c>
       <c r="F9" s="4">
@@ -16093,11 +17679,11 @@
         <v>60</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-358507.72251959355</v>
       </c>
       <c r="J9" s="4">
-        <f>J8*(1+B9)</f>
+        <f t="shared" si="8"/>
         <v>922078.72013655014</v>
       </c>
       <c r="K9" s="4">
@@ -16129,11 +17715,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-659.10527494326504</v>
       </c>
       <c r="E10" s="4">
-        <f>E9*(1+B10)</f>
+        <f t="shared" si="6"/>
         <v>3188.0037043249999</v>
       </c>
       <c r="F10" s="4">
@@ -16148,11 +17734,11 @@
         <v>72</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-349682.70687849127</v>
       </c>
       <c r="J10" s="4">
-        <f>J9*(1+B10)</f>
+        <f t="shared" si="8"/>
         <v>949741.08174064662</v>
       </c>
       <c r="K10" s="4">
@@ -16184,11 +17770,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-678.87843319156298</v>
       </c>
       <c r="E11" s="4">
-        <f>E10*(1+B11)</f>
+        <f t="shared" si="6"/>
         <v>3283.64381545475</v>
       </c>
       <c r="F11" s="4">
@@ -16203,11 +17789,11 @@
         <v>84</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-340521.00548381009</v>
       </c>
       <c r="J11" s="4">
-        <f>J10*(1+B11)</f>
+        <f t="shared" si="8"/>
         <v>978233.31419286609</v>
       </c>
       <c r="K11" s="4">
@@ -16239,11 +17825,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-699.24478618730984</v>
       </c>
       <c r="E12" s="4">
-        <f>E11*(1+B12)</f>
+        <f t="shared" si="6"/>
         <v>3382.1531299183926</v>
       </c>
       <c r="F12" s="4">
@@ -16258,11 +17844,11 @@
         <v>96</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-331009.77333886427</v>
       </c>
       <c r="J12" s="4">
-        <f>J11*(1+B12)</f>
+        <f t="shared" si="8"/>
         <v>1007580.3136186521</v>
       </c>
       <c r="K12" s="4">
@@ -16294,11 +17880,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-720.22212977292918</v>
       </c>
       <c r="E13" s="4">
-        <f>E12*(1+B13)</f>
+        <f t="shared" si="6"/>
         <v>3483.6177238159444</v>
       </c>
       <c r="F13" s="4">
@@ -16313,11 +17899,11 @@
         <v>108</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-321135.67539374135</v>
       </c>
       <c r="J13" s="4">
-        <f>J12*(1+B13)</f>
+        <f t="shared" si="8"/>
         <v>1037807.7230272116</v>
       </c>
       <c r="K13" s="4">
@@ -16349,11 +17935,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-741.82879366611712</v>
       </c>
       <c r="E14" s="4">
-        <f>E13*(1+B14)</f>
+        <f t="shared" si="6"/>
         <v>3588.1262555304229</v>
       </c>
       <c r="F14" s="4">
@@ -16368,11 +17954,11 @@
         <v>120</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-310884.86784913851</v>
       </c>
       <c r="J14" s="4">
-        <f>J13*(1+B14)</f>
+        <f t="shared" si="8"/>
         <v>1068941.954718028</v>
       </c>
       <c r="K14" s="4">
@@ -16404,11 +17990,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-764.08365747610071</v>
       </c>
       <c r="E15" s="4">
-        <f>E14*(1+B15)</f>
+        <f t="shared" si="6"/>
         <v>3695.7700431963358</v>
       </c>
       <c r="F15" s="4">
@@ -16423,11 +18009,11 @@
         <v>132</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-300242.97874691535</v>
       </c>
       <c r="J15" s="4">
-        <f>J14*(1+B15)</f>
+        <f t="shared" si="8"/>
         <v>1101010.2133595687</v>
       </c>
       <c r="K15" s="4">
@@ -16459,11 +18045,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-787.00616720038374</v>
       </c>
       <c r="E16" s="4">
-        <f>E15*(1+B16)</f>
+        <f t="shared" si="6"/>
         <v>3806.6431444922259</v>
       </c>
       <c r="F16" s="4">
@@ -16478,11 +18064,11 @@
         <v>144</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-289195.08782015194</v>
       </c>
       <c r="J16" s="4">
-        <f>J15*(1+B16)</f>
+        <f t="shared" si="8"/>
         <v>1134040.5197603558</v>
       </c>
       <c r="K16" s="4">
@@ -16514,11 +18100,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-810.61635221639528</v>
       </c>
       <c r="E17" s="4">
-        <f>E16*(1+B17)</f>
+        <f t="shared" si="6"/>
         <v>3920.8424388269927</v>
       </c>
       <c r="F17" s="4">
@@ -16533,11 +18119,11 @@
         <v>156</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-277725.70557446004</v>
       </c>
       <c r="J17" s="4">
-        <f>J16*(1+B17)</f>
+        <f t="shared" si="8"/>
         <v>1168061.7353531665</v>
       </c>
       <c r="K17" s="4">
@@ -16569,11 +18155,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-834.93484278288713</v>
       </c>
       <c r="E18" s="4">
-        <f>E17*(1+B18)</f>
+        <f t="shared" si="6"/>
         <v>4038.4677119918028</v>
       </c>
       <c r="F18" s="4">
@@ -16588,11 +18174,11 @@
         <v>168</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-265818.75157121912</v>
       </c>
       <c r="J18" s="4">
-        <f>J17*(1+B18)</f>
+        <f t="shared" si="8"/>
         <v>1203103.5874137615</v>
       </c>
       <c r="K18" s="4">
@@ -16624,11 +18210,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-859.98288806637379</v>
       </c>
       <c r="E19" s="4">
-        <f>E18*(1+B19)</f>
+        <f t="shared" si="6"/>
         <v>4159.6217433515567</v>
       </c>
       <c r="F19" s="4">
@@ -16643,11 +18229,11 @@
         <v>180</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-253457.53188229058</v>
       </c>
       <c r="J19" s="4">
-        <f>J18*(1+B19)</f>
+        <f t="shared" si="8"/>
         <v>1239196.6950361745</v>
       </c>
       <c r="K19" s="4">
@@ -16679,11 +18265,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-885.78237470836507</v>
       </c>
       <c r="E20" s="4">
-        <f>E19*(1+B20)</f>
+        <f t="shared" si="6"/>
         <v>4284.4103956521039</v>
       </c>
       <c r="F20" s="4">
@@ -16698,11 +18284,11 @@
         <v>192</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-240624.71568459953</v>
       </c>
       <c r="J20" s="4">
-        <f>J19*(1+B20)</f>
+        <f t="shared" si="8"/>
         <v>1276372.5958872598</v>
       </c>
       <c r="K20" s="4">
@@ -16734,11 +18320,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-912.35584594961608</v>
       </c>
       <c r="E21" s="4">
-        <f>E20*(1+B21)</f>
+        <f t="shared" si="6"/>
         <v>4412.9427075216672</v>
       </c>
       <c r="F21" s="4">
@@ -16753,11 +18339,11 @@
         <v>204</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-227302.3109617692</v>
       </c>
       <c r="J21" s="5">
-        <f>J20*(1+B21)</f>
+        <f t="shared" si="8"/>
         <v>1314663.7737638776</v>
       </c>
       <c r="K21" s="5">
@@ -16789,11 +18375,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-939.72652132810458</v>
       </c>
       <c r="E22" s="4">
-        <f>E21*(1+B22)</f>
+        <f t="shared" si="6"/>
         <v>4545.330988747317</v>
       </c>
       <c r="F22" s="4">
@@ -16808,11 +18394,11 @@
         <v>216</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-213471.63927874263</v>
       </c>
       <c r="J22" s="5">
-        <f>J21*(1+B22)</f>
+        <f t="shared" si="8"/>
         <v>1354103.6869767939</v>
       </c>
       <c r="K22" s="5">
@@ -16844,11 +18430,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-967.9183169679477</v>
       </c>
       <c r="E23" s="4">
-        <f>E22*(1+B23)</f>
+        <f t="shared" si="6"/>
         <v>4681.6909184097367</v>
       </c>
       <c r="F23" s="4">
@@ -16863,11 +18449,11 @@
         <v>228</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-199113.30959402211</v>
       </c>
       <c r="J23" s="5">
-        <f>J22*(1+B23)</f>
+        <f t="shared" si="8"/>
         <v>1394726.7975860978</v>
       </c>
       <c r="K23" s="5">
@@ -16899,11 +18485,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-996.95586647698622</v>
       </c>
       <c r="E24" s="4">
-        <f>E23*(1+B24)</f>
+        <f t="shared" si="6"/>
         <v>4822.1416459620286</v>
       </c>
       <c r="F24" s="4">
@@ -16918,11 +18504,11 @@
         <v>240</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-184207.19107281326</v>
       </c>
       <c r="J24" s="5">
-        <f>J23*(1+B24)</f>
+        <f t="shared" si="8"/>
         <v>1436568.6015136808</v>
       </c>
       <c r="K24" s="5">
@@ -16954,11 +18540,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1026.8645424712959</v>
       </c>
       <c r="E25" s="4">
-        <f>E24*(1+B25)</f>
+        <f t="shared" si="6"/>
         <v>4966.8058953408899</v>
       </c>
       <c r="F25" s="4">
@@ -16973,11 +18559,11 @@
         <v>252</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-168732.38486295327</v>
       </c>
       <c r="J25" s="5">
-        <f>J24*(1+B25)</f>
+        <f t="shared" si="8"/>
         <v>1479665.6595590913</v>
       </c>
       <c r="K25" s="5">
@@ -17009,11 +18595,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1057.6704787454348</v>
       </c>
       <c r="E26" s="4">
-        <f>E25*(1+B26)</f>
+        <f t="shared" si="6"/>
         <v>5115.8100722011168</v>
       </c>
       <c r="F26" s="4">
@@ -17028,11 +18614,11 @@
         <v>264</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-152667.19479405688</v>
       </c>
       <c r="J26" s="5">
-        <f>J25*(1+B26)</f>
+        <f t="shared" si="8"/>
         <v>1524055.6293458641</v>
       </c>
       <c r="K26" s="5">
@@ -17064,11 +18650,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1089.4005931077979</v>
       </c>
       <c r="E27" s="4">
-        <f>E26*(1+B27)</f>
+        <f t="shared" si="6"/>
         <v>5269.2843743671501</v>
       </c>
       <c r="F27" s="4">
@@ -17083,11 +18669,11 @@
         <v>276</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-135989.09695879434</v>
       </c>
       <c r="J27" s="5">
-        <f>J26*(1+B27)</f>
+        <f t="shared" si="8"/>
         <v>1569777.2982262401</v>
       </c>
       <c r="K27" s="5">
@@ -17119,11 +18705,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1122.0826109010318</v>
       </c>
       <c r="E28" s="4">
-        <f>E27*(1+B28)</f>
+        <f t="shared" si="6"/>
         <v>5427.3629055981646</v>
       </c>
       <c r="F28" s="4">
@@ -17138,11 +18724,11 @@
         <v>288</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-118674.70813365837</v>
       </c>
       <c r="J28" s="5">
-        <f>J27*(1+B28)</f>
+        <f t="shared" si="8"/>
         <v>1616870.6171730272</v>
       </c>
       <c r="K28" s="5">
@@ -17174,11 +18760,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1155.7450892280629</v>
       </c>
       <c r="E29" s="4">
-        <f>E28*(1+B29)</f>
+        <f t="shared" si="6"/>
         <v>5590.1837927661099</v>
       </c>
       <c r="F29" s="4">
@@ -17193,11 +18779,11 @@
         <v>300</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-100699.75299494033</v>
       </c>
       <c r="J29" s="5">
-        <f>J28*(1+B29)</f>
+        <f t="shared" si="8"/>
         <v>1665376.7356882181</v>
       </c>
       <c r="K29" s="5">
@@ -17229,11 +18815,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1190.4174419049048</v>
       </c>
       <c r="E30" s="4">
-        <f>E29*(1+B30)</f>
+        <f t="shared" si="6"/>
         <v>5757.8893065490938</v>
       </c>
       <c r="F30" s="4">
@@ -17248,11 +18834,11 @@
         <v>312</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-82039.030083954713</v>
       </c>
       <c r="J30" s="5">
-        <f>J29*(1+B30)</f>
+        <f t="shared" si="8"/>
         <v>1715338.0377588647</v>
       </c>
       <c r="K30" s="5">
@@ -17284,11 +18870,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1226.129965162052</v>
       </c>
       <c r="E31" s="4">
-        <f>E30*(1+B31)</f>
+        <f t="shared" si="6"/>
         <v>5930.625985745567</v>
       </c>
       <c r="F31" s="4">
@@ -17303,11 +18889,11 @@
         <v>324</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-62666.37647379328</v>
       </c>
       <c r="J31" s="5">
-        <f>J30*(1+B31)</f>
+        <f t="shared" si="8"/>
         <v>1766798.1788916306</v>
       </c>
       <c r="K31" s="5">
@@ -17339,11 +18925,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1262.9138641169136</v>
       </c>
       <c r="E32" s="4">
-        <f>E31*(1+B32)</f>
+        <f t="shared" si="6"/>
         <v>6108.5447653179344</v>
       </c>
       <c r="F32" s="4">
@@ -17358,11 +18944,11 @@
         <v>336</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-42554.631088068214</v>
       </c>
       <c r="J32" s="5">
-        <f>J31*(1+B32)</f>
+        <f t="shared" si="8"/>
         <v>1819802.1242583797</v>
       </c>
       <c r="K32" s="5">
@@ -17394,11 +18980,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1300.801280040421</v>
       </c>
       <c r="E33" s="4">
-        <f>E32*(1+B33)</f>
+        <f t="shared" si="6"/>
         <v>6291.8011082774728</v>
       </c>
       <c r="F33" s="4">
@@ -17413,11 +18999,11 @@
         <v>348</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-21675.596620220731</v>
       </c>
       <c r="J33" s="5">
-        <f>J32*(1+B33)</f>
+        <f t="shared" si="8"/>
         <v>1874396.1879861311</v>
       </c>
       <c r="K33" s="5">
@@ -17449,11 +19035,11 @@
         <v>-1843.2</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1339.8253184416337</v>
       </c>
       <c r="E34" s="4">
-        <f>E33*(1+B34)</f>
+        <f t="shared" si="6"/>
         <v>6480.5551415257969</v>
       </c>
       <c r="F34" s="4">
@@ -17468,11 +19054,11 @@
         <v>360</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f>J33*(1+B34)</f>
+        <f t="shared" si="8"/>
         <v>1930628.073625715</v>
       </c>
       <c r="K34" s="5">
@@ -17504,11 +19090,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1380.0200779948827</v>
       </c>
       <c r="E35" s="4">
-        <f>E34*(1+B35)</f>
+        <f t="shared" si="6"/>
         <v>6674.9717957715711</v>
       </c>
       <c r="F35" s="4">
@@ -17520,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <f>J34*(1+B35)</f>
+        <f t="shared" si="8"/>
         <v>1988546.9158344865</v>
       </c>
       <c r="K35" s="5">
@@ -17552,11 +19138,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1421.4206803347292</v>
       </c>
       <c r="E36" s="4">
-        <f>E35*(1+B36)</f>
+        <f t="shared" si="6"/>
         <v>6875.2209496447185</v>
       </c>
       <c r="F36" s="4">
@@ -17568,7 +19154,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <f>J35*(1+B36)</f>
+        <f t="shared" si="8"/>
         <v>2048203.3233095212</v>
       </c>
       <c r="K36" s="5">
@@ -17600,11 +19186,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1464.0633007447711</v>
       </c>
       <c r="E37" s="4">
-        <f>E36*(1+B37)</f>
+        <f t="shared" si="6"/>
         <v>7081.4775781340604</v>
       </c>
       <c r="F37" s="4">
@@ -17616,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <f>J36*(1+B37)</f>
+        <f t="shared" si="8"/>
         <v>2109649.423008807</v>
       </c>
       <c r="K37" s="5">
@@ -17648,11 +19234,11 @@
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1507.9851997671144</v>
       </c>
       <c r="E38" s="4">
-        <f>E37*(1+B38)</f>
+        <f t="shared" ref="E38:E69" si="10">E37*(1+B38)</f>
         <v>7293.9219054780824</v>
       </c>
       <c r="F38" s="4">
@@ -17664,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f>J37*(1+B38)</f>
+        <f t="shared" ref="J38:J69" si="11">J37*(1+B38)</f>
         <v>2172938.9056990715</v>
       </c>
       <c r="K38" s="5">
@@ -17696,11 +19282,11 @@
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1553.2247557601279</v>
       </c>
       <c r="E39" s="4">
-        <f>E38*(1+B39)</f>
+        <f t="shared" si="10"/>
         <v>7512.739562642425</v>
       </c>
       <c r="F39" s="4">
@@ -17712,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <f>J38*(1+B39)</f>
+        <f t="shared" si="11"/>
         <v>2238127.0728700436</v>
       </c>
       <c r="K39" s="5">
@@ -17744,11 +19330,11 @@
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1599.8214984329318</v>
       </c>
       <c r="E40" s="4">
-        <f>E39*(1+B40)</f>
+        <f t="shared" si="10"/>
         <v>7738.1217495216979</v>
       </c>
       <c r="F40" s="4">
@@ -17760,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <f>J39*(1+B40)</f>
+        <f t="shared" si="11"/>
         <v>2305270.885056145</v>
       </c>
       <c r="K40" s="5">
@@ -17792,11 +19378,11 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1647.8161433859198</v>
       </c>
       <c r="E41" s="4">
-        <f>E40*(1+B41)</f>
+        <f t="shared" si="10"/>
         <v>7970.2654020073487</v>
       </c>
       <c r="F41" s="4">
@@ -17808,7 +19394,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <f>J40*(1+B41)</f>
+        <f t="shared" si="11"/>
         <v>2374429.0116078295</v>
       </c>
       <c r="K41" s="5">
@@ -17840,11 +19426,11 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1697.2506276874974</v>
       </c>
       <c r="E42" s="4">
-        <f>E41*(1+B42)</f>
+        <f t="shared" si="10"/>
         <v>8209.3733640675691</v>
       </c>
       <c r="F42" s="4">
@@ -17856,7 +19442,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="5">
-        <f>J41*(1+B42)</f>
+        <f t="shared" si="11"/>
         <v>2445661.8819560646</v>
       </c>
       <c r="K42" s="5">
@@ -17888,11 +19474,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1748.1681465181223</v>
       </c>
       <c r="E43" s="4">
-        <f>E42*(1+B43)</f>
+        <f t="shared" si="10"/>
         <v>8455.6545649895961</v>
       </c>
       <c r="F43" s="4">
@@ -17904,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="5">
-        <f>J42*(1+B43)</f>
+        <f t="shared" si="11"/>
         <v>2519031.7384147467</v>
       </c>
       <c r="K43" s="5">
@@ -17936,11 +19522,11 @@
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1800.6131909136659</v>
       </c>
       <c r="E44" s="4">
-        <f>E43*(1+B44)</f>
+        <f t="shared" si="10"/>
         <v>8709.3242019392837</v>
       </c>
       <c r="F44" s="4">
@@ -17952,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <f>J43*(1+B44)</f>
+        <f t="shared" si="11"/>
         <v>2594602.6905671894</v>
       </c>
       <c r="K44" s="5">
@@ -17984,11 +19570,11 @@
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1854.631586641076</v>
       </c>
       <c r="E45" s="4">
-        <f>E44*(1+B45)</f>
+        <f t="shared" si="10"/>
         <v>8970.603927997463</v>
       </c>
       <c r="F45" s="4">
@@ -18000,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f>J44*(1+B45)</f>
+        <f t="shared" si="11"/>
         <v>2672440.7712842049</v>
       </c>
       <c r="K45" s="5">
@@ -18032,11 +19618,11 @@
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1910.2705342403083</v>
       </c>
       <c r="E46" s="4">
-        <f>E45*(1+B46)</f>
+        <f t="shared" si="10"/>
         <v>9239.7220458373868</v>
       </c>
       <c r="F46" s="4">
@@ -18048,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <f>J45*(1+B46)</f>
+        <f t="shared" si="11"/>
         <v>2752613.994422731</v>
       </c>
       <c r="K46" s="5">
@@ -18080,11 +19666,11 @@
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1967.5786502675176</v>
       </c>
       <c r="E47" s="4">
-        <f>E46*(1+B47)</f>
+        <f t="shared" si="10"/>
         <v>9516.9137072125086</v>
       </c>
       <c r="F47" s="4">
@@ -18096,7 +19682,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <f>J46*(1+B47)</f>
+        <f t="shared" si="11"/>
         <v>2835192.4142554128</v>
       </c>
       <c r="K47" s="5">
@@ -18128,11 +19714,11 @@
         <v>0</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2026.606009775543</v>
       </c>
       <c r="E48" s="4">
-        <f>E47*(1+B48)</f>
+        <f t="shared" si="10"/>
         <v>9802.4211184288833</v>
       </c>
       <c r="F48" s="4">
@@ -18144,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <f>J47*(1+B48)</f>
+        <f t="shared" si="11"/>
         <v>2920248.186683075</v>
       </c>
       <c r="K48" s="5">
@@ -18176,11 +19762,11 @@
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2087.4041900688094</v>
       </c>
       <c r="E49" s="4">
-        <f>E48*(1+B49)</f>
+        <f t="shared" si="10"/>
         <v>10096.49375198175</v>
       </c>
       <c r="F49" s="4">
@@ -18192,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>J48*(1+B49)</f>
+        <f t="shared" si="11"/>
         <v>3007855.6322835675</v>
       </c>
       <c r="K49" s="5">
@@ -18224,11 +19810,11 @@
         <v>0</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2150.0263157708737</v>
       </c>
       <c r="E50" s="4">
-        <f>E49*(1+B50)</f>
+        <f t="shared" si="10"/>
         <v>10399.388564541203</v>
       </c>
       <c r="F50" s="4">
@@ -18240,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>J49*(1+B50)</f>
+        <f t="shared" si="11"/>
         <v>3098091.3012520745</v>
       </c>
       <c r="K50" s="5">
@@ -18272,11 +19858,11 @@
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2214.5271052439998</v>
       </c>
       <c r="E51" s="4">
-        <f>E50*(1+B51)</f>
+        <f t="shared" si="10"/>
         <v>10711.370221477438</v>
       </c>
       <c r="F51" s="4">
@@ -18288,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f>J50*(1+B51)</f>
+        <f t="shared" si="11"/>
         <v>3191034.0402896367</v>
       </c>
       <c r="K51" s="5">
@@ -18320,11 +19906,11 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2280.9629184013197</v>
       </c>
       <c r="E52" s="4">
-        <f>E51*(1+B52)</f>
+        <f t="shared" si="10"/>
         <v>11032.711328121763</v>
       </c>
       <c r="F52" s="4">
@@ -18336,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f>J51*(1+B52)</f>
+        <f t="shared" si="11"/>
         <v>3286765.0614983258</v>
       </c>
       <c r="K52" s="5">
@@ -18368,11 +19954,11 @@
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2349.3918059533594</v>
       </c>
       <c r="E53" s="4">
-        <f>E52*(1+B53)</f>
+        <f t="shared" si="10"/>
         <v>11363.692667965415</v>
       </c>
       <c r="F53" s="4">
@@ -18384,7 +19970,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <f>J52*(1+B53)</f>
+        <f t="shared" si="11"/>
         <v>3385368.0133432755</v>
       </c>
       <c r="K53" s="5">
@@ -18416,11 +20002,11 @@
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2419.8735601319604</v>
       </c>
       <c r="E54" s="4">
-        <f>E53*(1+B54)</f>
+        <f t="shared" si="10"/>
         <v>11704.603448004378</v>
       </c>
       <c r="F54" s="4">
@@ -18432,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <f>J53*(1+B54)</f>
+        <f t="shared" si="11"/>
         <v>3486929.0537435738</v>
       </c>
       <c r="K54" s="5">
@@ -18464,11 +20050,11 @@
         <v>0</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2492.4697669359193</v>
       </c>
       <c r="E55" s="4">
-        <f>E54*(1+B55)</f>
+        <f t="shared" si="10"/>
         <v>12055.741551444509</v>
       </c>
       <c r="F55" s="4">
@@ -18480,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <f>J54*(1+B55)</f>
+        <f t="shared" si="11"/>
         <v>3591536.925355881</v>
       </c>
       <c r="K55" s="5">
@@ -18512,11 +20098,11 @@
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2567.243859943997</v>
       </c>
       <c r="E56" s="4">
-        <f>E55*(1+B56)</f>
+        <f t="shared" si="10"/>
         <v>12417.413797987845</v>
       </c>
       <c r="F56" s="4">
@@ -18528,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="5">
-        <f>J55*(1+B56)</f>
+        <f t="shared" si="11"/>
         <v>3699283.0331165576</v>
       </c>
       <c r="K56" s="5">
@@ -18560,11 +20146,11 @@
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2644.2611757423169</v>
       </c>
       <c r="E57" s="4">
-        <f>E56*(1+B57)</f>
+        <f t="shared" si="10"/>
         <v>12789.936211927481</v>
       </c>
       <c r="F57" s="4">
@@ -18576,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <f>J56*(1+B57)</f>
+        <f t="shared" si="11"/>
         <v>3810261.5241100546</v>
       </c>
       <c r="K57" s="5">
@@ -18608,11 +20194,11 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2723.5890110145865</v>
       </c>
       <c r="E58" s="4">
-        <f>E57*(1+B58)</f>
+        <f t="shared" si="10"/>
         <v>13173.634298285306</v>
       </c>
       <c r="F58" s="4">
@@ -18624,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <f>J57*(1+B58)</f>
+        <f t="shared" si="11"/>
         <v>3924569.3698333562</v>
       </c>
       <c r="K58" s="5">
@@ -18656,11 +20242,11 @@
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2805.2966813450244</v>
       </c>
       <c r="E59" s="4">
-        <f>E58*(1+B59)</f>
+        <f t="shared" si="10"/>
         <v>13568.843327233864</v>
       </c>
       <c r="F59" s="4">
@@ -18672,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="5">
-        <f>J58*(1+B59)</f>
+        <f t="shared" si="11"/>
         <v>4042306.450928357</v>
       </c>
       <c r="K59" s="5">
@@ -18704,11 +20290,11 @@
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2889.4555817853752</v>
       </c>
       <c r="E60" s="4">
-        <f>E59*(1+B60)</f>
+        <f t="shared" si="10"/>
         <v>13975.908627050881</v>
       </c>
       <c r="F60" s="4">
@@ -18720,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <f>J59*(1+B60)</f>
+        <f t="shared" si="11"/>
         <v>4163575.6444562078</v>
       </c>
       <c r="K60" s="5">
@@ -18752,11 +20338,11 @@
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2976.1392492389364</v>
       </c>
       <c r="E61" s="4">
-        <f>E60*(1+B61)</f>
+        <f t="shared" si="10"/>
         <v>14395.185885862409</v>
       </c>
       <c r="F61" s="4">
@@ -18768,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <f>J60*(1+B61)</f>
+        <f t="shared" si="11"/>
         <v>4288482.9137898944</v>
       </c>
       <c r="K61" s="5">
@@ -18800,11 +20386,11 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3065.4234267161046</v>
       </c>
       <c r="E62" s="4">
-        <f>E61*(1+B62)</f>
+        <f t="shared" si="10"/>
         <v>14827.041462438281</v>
       </c>
       <c r="F62" s="4">
@@ -18816,7 +20402,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <f>J61*(1+B62)</f>
+        <f t="shared" si="11"/>
         <v>4417137.4012035914</v>
       </c>
       <c r="K62" s="5">
@@ -18848,11 +20434,11 @@
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3157.386129517588</v>
       </c>
       <c r="E63" s="4">
-        <f>E62*(1+B63)</f>
+        <f t="shared" si="10"/>
         <v>15271.852706311431</v>
       </c>
       <c r="F63" s="4">
@@ -18864,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="5">
-        <f>J62*(1+B63)</f>
+        <f t="shared" si="11"/>
         <v>4549651.5232396992</v>
       </c>
       <c r="K63" s="5">
@@ -18896,11 +20482,11 @@
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3252.1077134031157</v>
       </c>
       <c r="E64" s="4">
-        <f>E63*(1+B64)</f>
+        <f t="shared" si="10"/>
         <v>15730.008287500774</v>
       </c>
       <c r="F64" s="4">
@@ -18912,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f>J63*(1+B64)</f>
+        <f t="shared" si="11"/>
         <v>4686141.06893689</v>
       </c>
       <c r="K64" s="5">
@@ -18944,11 +20530,11 @@
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3349.6709448052093</v>
       </c>
       <c r="E65" s="4">
-        <f>E64*(1+B65)</f>
+        <f t="shared" si="10"/>
         <v>16201.908536125797</v>
       </c>
       <c r="F65" s="4">
@@ -18960,7 +20546,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f>J64*(1+B65)</f>
+        <f t="shared" si="11"/>
         <v>4826725.3010049965</v>
       </c>
       <c r="K65" s="5">
@@ -18992,11 +20578,11 @@
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3450.1610731493656</v>
       </c>
       <c r="E66" s="4">
-        <f>E65*(1+B66)</f>
+        <f t="shared" si="10"/>
         <v>16687.965792209572</v>
       </c>
       <c r="F66" s="4">
@@ -19008,11 +20594,11 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f>J65*(1+B66)</f>
+        <f t="shared" si="11"/>
         <v>4971527.0600351468</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K69" si="8">I66+J66</f>
+        <f t="shared" ref="K66:K69" si="12">I66+J66</f>
         <v>4971527.0600351468</v>
       </c>
       <c r="L66" s="18">
@@ -19040,11 +20626,11 @@
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3553.6659053438466</v>
       </c>
       <c r="E67" s="4">
-        <f>E66*(1+B67)</f>
+        <f t="shared" si="10"/>
         <v>17188.604765975859</v>
       </c>
       <c r="F67" s="4">
@@ -19056,11 +20642,11 @@
         <v>0</v>
       </c>
       <c r="J67" s="5">
-        <f>J66*(1+B67)</f>
+        <f t="shared" si="11"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="L67" s="18">
@@ -19088,11 +20674,11 @@
         <v>0</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3660.2758825041619</v>
       </c>
       <c r="E68" s="4">
-        <f>E67*(1+B68)</f>
+        <f t="shared" si="10"/>
         <v>17704.262908955134</v>
       </c>
       <c r="F68" s="4">
@@ -19104,23 +20690,23 @@
         <v>0</v>
       </c>
       <c r="J68" s="5">
-        <f>J67*(1+B68)</f>
+        <f t="shared" si="11"/>
         <v>5274293.0579912877</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5274293.0579912877</v>
       </c>
       <c r="L68" s="18">
-        <f t="shared" ref="L68:L69" si="9">K68-K67+12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="L68:L69" si="13">K68-K67+12*(C68+D68+E68)+F68</f>
         <v>322148.03047249804</v>
       </c>
       <c r="M68" s="19">
-        <f t="shared" ref="M68:M69" si="10">L68/K67</f>
+        <f t="shared" ref="M68:M69" si="14">L68/K67</f>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N68" s="18">
-        <f t="shared" ref="N68:N69" si="11">12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="N68:N69" si="15">12*(C68+D68+E68)+F68</f>
         <v>168527.84431741165</v>
       </c>
     </row>
@@ -19136,11 +20722,11 @@
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3770.0841589792867</v>
       </c>
       <c r="E69" s="4">
-        <f>E68*(1+B69)</f>
+        <f t="shared" si="10"/>
         <v>18235.39079622379</v>
       </c>
       <c r="F69" s="4">
@@ -19152,23 +20738,23 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f>J68*(1+B69)</f>
+        <f t="shared" si="11"/>
         <v>5432521.8497310262</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5432521.8497310262</v>
       </c>
       <c r="L69" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>331812.47138667258</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N69" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>173583.67964693403</v>
       </c>
     </row>
@@ -19264,4 +20850,548 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF00B6-9DAA-2743-8F33-DF41BCB6AE9E}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="22">
+        <f>'Initial Loan'!M6</f>
+        <v>7.4716979290896601E-2</v>
+      </c>
+      <c r="C2" s="22">
+        <f>'2015 Refinance'!M6</f>
+        <v>8.2619782289870033E-2</v>
+      </c>
+      <c r="D2" s="22">
+        <f>'2016 Refinance'!M6</f>
+        <v>8.6378472862382136E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="22">
+        <f>'Initial Loan'!M7</f>
+        <v>7.3744191988413754E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>'2015 Refinance'!M7</f>
+        <v>8.0921274259875012E-2</v>
+      </c>
+      <c r="D3" s="22">
+        <f>'2016 Refinance'!M7</f>
+        <v>8.4331420059108722E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="22">
+        <f>'Initial Loan'!M8</f>
+        <v>7.2864422531959377E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <f>'2015 Refinance'!M8</f>
+        <v>7.9394041479543348E-2</v>
+      </c>
+      <c r="D4" s="22">
+        <f>'2016 Refinance'!M8</f>
+        <v>8.249623452911671E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="22">
+        <f>'Initial Loan'!M9</f>
+        <v>7.2064901065489392E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <f>'2015 Refinance'!M9</f>
+        <v>7.801361360065491E-2</v>
+      </c>
+      <c r="D5" s="22">
+        <f>'2016 Refinance'!M9</f>
+        <v>8.0842023463020107E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="22">
+        <f>'Initial Loan'!M10</f>
+        <v>7.1335080835943615E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <f>'2015 Refinance'!M10</f>
+        <v>7.6759958059749653E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <f>'2016 Refinance'!M10</f>
+        <v>7.934361169552534E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="22">
+        <f>'Initial Loan'!M11</f>
+        <v>7.0666174400685108E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <f>'2015 Refinance'!M11</f>
+        <v>7.5616517509863881E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <f>'2016 Refinance'!M11</f>
+        <v>7.7980277243539842E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="22">
+        <f>'Initial Loan'!M12</f>
+        <v>7.0050801300688192E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <f>'2015 Refinance'!M12</f>
+        <v>7.456948738153274E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <f>'2016 Refinance'!M12</f>
+        <v>7.6734808199899834E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="22">
+        <f>'Initial Loan'!M13</f>
+        <v>6.9482717149535703E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>'2015 Refinance'!M13</f>
+        <v>7.3607266474579866E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <f>'2016 Refinance'!M13</f>
+        <v>7.5592789572316854E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>2026</v>
+      </c>
+      <c r="B10" s="22">
+        <f>'Initial Loan'!M14</f>
+        <v>6.8956603003389544E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <f>'2015 Refinance'!M14</f>
+        <v>7.2720034087254401E-2</v>
+      </c>
+      <c r="D10" s="22">
+        <f>'2016 Refinance'!M14</f>
+        <v>7.4542057213193666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>2027</v>
+      </c>
+      <c r="B11" s="22">
+        <f>'Initial Loan'!M15</f>
+        <v>6.8467899923069953E-2</v>
+      </c>
+      <c r="C11" s="22">
+        <f>'2015 Refinance'!M15</f>
+        <v>7.1899420938942554E-2</v>
+      </c>
+      <c r="D11" s="22">
+        <f>'2016 Refinance'!M15</f>
+        <v>7.3572274883372882E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>2028</v>
+      </c>
+      <c r="B12" s="22">
+        <f>'Initial Loan'!M16</f>
+        <v>6.8012677806803354E-2</v>
+      </c>
+      <c r="C12" s="22">
+        <f>'2015 Refinance'!M16</f>
+        <v>7.1138250480953916E-2</v>
+      </c>
+      <c r="D12" s="22">
+        <f>'2016 Refinance'!M16</f>
+        <v>7.2674603229992127E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>2029</v>
+      </c>
+      <c r="B13" s="22">
+        <f>'Initial Loan'!M17</f>
+        <v>6.7587530487930064E-2</v>
+      </c>
+      <c r="C13" s="22">
+        <f>'2015 Refinance'!M17</f>
+        <v>7.0430333635150791E-2</v>
+      </c>
+      <c r="D13" s="22">
+        <f>'2016 Refinance'!M17</f>
+        <v>7.1841438188808837E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>2030</v>
+      </c>
+      <c r="B14" s="22">
+        <f>'Initial Loan'!M18</f>
+        <v>6.7189491160168799E-2</v>
+      </c>
+      <c r="C14" s="22">
+        <f>'2015 Refinance'!M18</f>
+        <v>6.9770304515203885E-2</v>
+      </c>
+      <c r="D14" s="22">
+        <f>'2016 Refinance'!M18</f>
+        <v>7.1066202397840131E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>2031</v>
+      </c>
+      <c r="B15" s="22">
+        <f>'Initial Loan'!M19</f>
+        <v>6.6815963678970913E-2</v>
+      </c>
+      <c r="C15" s="22">
+        <f>'2015 Refinance'!M19</f>
+        <v>6.9153487891606982E-2</v>
+      </c>
+      <c r="D15" s="22">
+        <f>'2016 Refinance'!M19</f>
+        <v>7.0343177498968734E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>2032</v>
+      </c>
+      <c r="B16" s="22">
+        <f>'Initial Loan'!M20</f>
+        <v>6.6464666367791678E-2</v>
+      </c>
+      <c r="C16" s="22">
+        <f>'2015 Refinance'!M20</f>
+        <v>6.8575791467611696E-2</v>
+      </c>
+      <c r="D16" s="22">
+        <f>'2016 Refinance'!M20</f>
+        <v>6.9667368272534225E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>2033</v>
+      </c>
+      <c r="B17" s="22">
+        <f>'Initial Loan'!M21</f>
+        <v>6.613358575211134E-2</v>
+      </c>
+      <c r="C17" s="22">
+        <f>'2015 Refinance'!M21</f>
+        <v>6.8033617711314442E-2</v>
+      </c>
+      <c r="D17" s="22">
+        <f>'2016 Refinance'!M21</f>
+        <v>6.9034391771404954E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>2034</v>
+      </c>
+      <c r="B18" s="22">
+        <f>'Initial Loan'!M22</f>
+        <v>6.5820938233696447E-2</v>
+      </c>
+      <c r="C18" s="22">
+        <f>'2015 Refinance'!M22</f>
+        <v>6.752379122368421E-2</v>
+      </c>
+      <c r="D18" s="22">
+        <f>'2016 Refinance'!M22</f>
+        <v>6.8440386247638374E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>2035</v>
+      </c>
+      <c r="B19" s="22">
+        <f>'Initial Loan'!M23</f>
+        <v>6.552513815967459E-2</v>
+      </c>
+      <c r="C19" s="22">
+        <f>'2015 Refinance'!M23</f>
+        <v>6.7043498539876983E-2</v>
+      </c>
+      <c r="D19" s="22">
+        <f>'2016 Refinance'!M23</f>
+        <v>6.7881935868439561E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>2036</v>
+      </c>
+      <c r="B20" s="22">
+        <f>'Initial Loan'!M24</f>
+        <v>6.5244771075466154E-2</v>
+      </c>
+      <c r="C20" s="22">
+        <f>'2015 Refinance'!M24</f>
+        <v>6.6590237949678804E-2</v>
+      </c>
+      <c r="D20" s="22">
+        <f>'2016 Refinance'!M24</f>
+        <v>6.7356008117521377E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>2037</v>
+      </c>
+      <c r="B21" s="22">
+        <f>'Initial Loan'!M25</f>
+        <v>6.4978571205767291E-2</v>
+      </c>
+      <c r="C21" s="22">
+        <f>'2015 Refinance'!M25</f>
+        <v>6.6161777444185596E-2</v>
+      </c>
+      <c r="D21" s="22">
+        <f>'2016 Refinance'!M25</f>
+        <v>6.6859901456265108E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>2038</v>
+      </c>
+      <c r="B22" s="22">
+        <f>'Initial Loan'!M26</f>
+        <v>6.4725402404027993E-2</v>
+      </c>
+      <c r="C22" s="22">
+        <f>'2015 Refinance'!M26</f>
+        <v>6.5756119293771828E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <f>'2016 Refinance'!M26</f>
+        <v>6.6391201335026809E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>2039</v>
+      </c>
+      <c r="B23" s="22">
+        <f>'Initial Loan'!M27</f>
+        <v>6.4484241962903976E-2</v>
+      </c>
+      <c r="C23" s="22">
+        <f>'2015 Refinance'!M27</f>
+        <v>6.5371470068684823E-2</v>
+      </c>
+      <c r="D23" s="22">
+        <f>'2016 Refinance'!M27</f>
+        <v>6.5947743040656537E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>2040</v>
+      </c>
+      <c r="B24" s="22">
+        <f>'Initial Loan'!M28</f>
+        <v>6.4254166796796602E-2</v>
+      </c>
+      <c r="C24" s="22">
+        <f>'2015 Refinance'!M28</f>
+        <v>6.5006215150996777E-2</v>
+      </c>
+      <c r="D24" s="22">
+        <f>'2016 Refinance'!M28</f>
+        <v>6.5527580172047808E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>2041</v>
+      </c>
+      <c r="B25" s="22">
+        <f>'Initial Loan'!M29</f>
+        <v>6.4034341600799127E-2</v>
+      </c>
+      <c r="C25" s="22">
+        <f>'2015 Refinance'!M29</f>
+        <v>6.4658896972052432E-2</v>
+      </c>
+      <c r="D25" s="22">
+        <f>'2016 Refinance'!M29</f>
+        <v>6.5128957773573415E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>2042</v>
+      </c>
+      <c r="B26" s="22">
+        <f>'Initial Loan'!M30</f>
+        <v>6.3824008664032164E-2</v>
+      </c>
+      <c r="C26" s="22">
+        <f>'2015 Refinance'!M30</f>
+        <v>6.4328196355234832E-2</v>
+      </c>
+      <c r="D26" s="22">
+        <f>'2016 Refinance'!M30</f>
+        <v>6.4750289342770218E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>2043</v>
+      </c>
+      <c r="B27" s="22">
+        <f>'Initial Loan'!M31</f>
+        <v>6.3622479073947649E-2</v>
+      </c>
+      <c r="C27" s="22">
+        <f>'2015 Refinance'!M31</f>
+        <v>6.401291645912649E-2</v>
+      </c>
+      <c r="D27" s="22">
+        <f>'2016 Refinance'!M31</f>
+        <v>6.4390137075784101E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>2044</v>
+      </c>
+      <c r="B28" s="22">
+        <f>'Initial Loan'!M32</f>
+        <v>6.3429125095047362E-2</v>
+      </c>
+      <c r="C28" s="22">
+        <f>'2015 Refinance'!M32</f>
+        <v>6.371196890783383E-2</v>
+      </c>
+      <c r="D28" s="22">
+        <f>'2016 Refinance'!M32</f>
+        <v>6.4047194830840357E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>2045</v>
+      </c>
+      <c r="B29" s="22">
+        <f>'Initial Loan'!M33</f>
+        <v>6.2911269384990018E-2</v>
+      </c>
+      <c r="C29" s="22">
+        <f>'2015 Refinance'!M33</f>
+        <v>6.3424361768620846E-2</v>
+      </c>
+      <c r="D29" s="22">
+        <f>'2016 Refinance'!M33</f>
+        <v>6.3720273383213746E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>2046</v>
+      </c>
+      <c r="B30" s="22">
+        <f>'Initial Loan'!M34</f>
+        <v>6.2911269384990018E-2</v>
+      </c>
+      <c r="C30" s="22">
+        <f>'2015 Refinance'!M34</f>
+        <v>6.2911269384990018E-2</v>
+      </c>
+      <c r="D30" s="22">
+        <f>'2016 Refinance'!M34</f>
+        <v>6.3408287619993758E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>2047</v>
+      </c>
+      <c r="B31" s="22">
+        <f>'Initial Loan'!M35</f>
+        <v>6.2911269384990046E-2</v>
+      </c>
+      <c r="C31" s="22">
+        <f>'2015 Refinance'!M35</f>
+        <v>6.2911269384990046E-2</v>
+      </c>
+      <c r="D31" s="22">
+        <f>'2016 Refinance'!M35</f>
+        <v>6.2911269384990046E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/4/1122 24th - Model.xlsx
+++ b/excel/4/1122 24th - Model.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Loan" sheetId="1" r:id="rId1"/>
     <sheet name="2015 Refinance" sheetId="3" r:id="rId2"/>
     <sheet name="2016 Refinance" sheetId="5" r:id="rId3"/>
     <sheet name="Refinance Comparison" sheetId="6" r:id="rId4"/>
+    <sheet name="Average Return" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -78,6 +79,18 @@
   </si>
   <si>
     <t>2015 Refinance</t>
+  </si>
+  <si>
+    <t>Total Cash Flow</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Annual Return</t>
+  </si>
+  <si>
+    <t>2014 to 2017</t>
   </si>
 </sst>
 </file>
@@ -157,7 +170,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -181,6 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3916,6 +3930,7 @@
         <c:axId val="1139953247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9.0000000000000024E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -9963,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13587,7 +13602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83176ACA-3A5C-CE49-8DEB-19D6381A86F7}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -17218,8 +17233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2522BE3F-D4EA-5C43-8E12-B7138C1F7228}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:A34"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17319,7 +17334,7 @@
         <v>422500</v>
       </c>
       <c r="K2" s="13">
-        <f t="shared" ref="K2:K65" si="0">I2+J2</f>
+        <f>I2+J2</f>
         <v>18750</v>
       </c>
       <c r="L2" s="13"/>
@@ -17366,7 +17381,7 @@
         <v>599520</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K2:K65" si="0">I3+J3</f>
         <v>198520</v>
       </c>
       <c r="L3" s="16">
@@ -20854,10 +20869,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF00B6-9DAA-2743-8F33-DF41BCB6AE9E}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21135,7 +21150,7 @@
         <v>6.9667368272534225E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>2033</v>
       </c>
@@ -21152,7 +21167,7 @@
         <v>6.9034391771404954E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>2034</v>
       </c>
@@ -21169,7 +21184,7 @@
         <v>6.8440386247638374E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>2035</v>
       </c>
@@ -21186,7 +21201,7 @@
         <v>6.7881935868439561E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>2036</v>
       </c>
@@ -21203,7 +21218,7 @@
         <v>6.7356008117521377E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>2037</v>
       </c>
@@ -21220,7 +21235,7 @@
         <v>6.6859901456265108E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>2038</v>
       </c>
@@ -21237,7 +21252,7 @@
         <v>6.6391201335026809E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>2039</v>
       </c>
@@ -21254,7 +21269,7 @@
         <v>6.5947743040656537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>2040</v>
       </c>
@@ -21271,7 +21286,7 @@
         <v>6.5527580172047808E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>2041</v>
       </c>
@@ -21288,7 +21303,7 @@
         <v>6.5128957773573415E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>2042</v>
       </c>
@@ -21305,7 +21320,7 @@
         <v>6.4750289342770218E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>2043</v>
       </c>
@@ -21322,7 +21337,7 @@
         <v>6.4390137075784101E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>2044</v>
       </c>
@@ -21339,7 +21354,7 @@
         <v>6.4047194830840357E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>2045</v>
       </c>
@@ -21356,7 +21371,7 @@
         <v>6.3720273383213746E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>2046</v>
       </c>
@@ -21372,8 +21387,9 @@
         <f>'2016 Refinance'!M34</f>
         <v>6.3408287619993758E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>2047</v>
       </c>
@@ -21394,4 +21410,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E9655E-C9F7-7B4E-A7DC-701EF47E591E}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <f>SUM('2016 Refinance'!N2:N5)</f>
+        <v>-167115.56</v>
+      </c>
+      <c r="B4" s="6">
+        <f>'2016 Refinance'!K5</f>
+        <v>428573.3342090486</v>
+      </c>
+      <c r="C4" s="23">
+        <f>-1*B4/A4</f>
+        <v>2.5645327952049981</v>
+      </c>
+      <c r="D4" s="23">
+        <f>C4^(1/4)-1</f>
+        <v>0.26547061286890661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/4/1122 24th - Model.xlsx
+++ b/excel/4/1122 24th - Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Loan" sheetId="1" r:id="rId1"/>
@@ -9978,7 +9978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -17381,7 +17381,7 @@
         <v>599520</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K2:K65" si="0">I3+J3</f>
+        <f t="shared" ref="K3:K65" si="0">I3+J3</f>
         <v>198520</v>
       </c>
       <c r="L3" s="16">
@@ -21416,8 +21416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E9655E-C9F7-7B4E-A7DC-701EF47E591E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/4/1122 24th - Model.xlsx
+++ b/excel/4/1122 24th - Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Loan" sheetId="1" r:id="rId1"/>
@@ -17233,8 +17233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2522BE3F-D4EA-5C43-8E12-B7138C1F7228}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17560,6 +17560,7 @@
         <v>2019</v>
       </c>
       <c r="B7" s="3">
+        <f>B6</f>
         <v>0.03</v>
       </c>
       <c r="C7" s="4">
@@ -17614,6 +17615,7 @@
         <v>2020</v>
       </c>
       <c r="B8" s="3">
+        <f t="shared" ref="B8:B69" si="10">B7</f>
         <v>0.03</v>
       </c>
       <c r="C8" s="4">
@@ -17668,7 +17670,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C9" s="4">
@@ -17723,7 +17725,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C10" s="4">
@@ -17778,7 +17780,7 @@
         <v>2023</v>
       </c>
       <c r="B11" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C11" s="4">
@@ -17833,7 +17835,7 @@
         <v>2024</v>
       </c>
       <c r="B12" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C12" s="4">
@@ -17888,7 +17890,7 @@
         <v>2025</v>
       </c>
       <c r="B13" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C13" s="4">
@@ -17943,7 +17945,7 @@
         <v>2026</v>
       </c>
       <c r="B14" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C14" s="4">
@@ -17998,7 +18000,7 @@
         <v>2027</v>
       </c>
       <c r="B15" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C15" s="4">
@@ -18053,7 +18055,7 @@
         <v>2028</v>
       </c>
       <c r="B16" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C16" s="4">
@@ -18108,7 +18110,7 @@
         <v>2029</v>
       </c>
       <c r="B17" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C17" s="4">
@@ -18163,7 +18165,7 @@
         <v>2030</v>
       </c>
       <c r="B18" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C18" s="4">
@@ -18218,7 +18220,7 @@
         <v>2031</v>
       </c>
       <c r="B19" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C19" s="4">
@@ -18273,7 +18275,7 @@
         <v>2032</v>
       </c>
       <c r="B20" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C20" s="4">
@@ -18328,7 +18330,7 @@
         <v>2033</v>
       </c>
       <c r="B21" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C21" s="4">
@@ -18383,7 +18385,7 @@
         <v>2034</v>
       </c>
       <c r="B22" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C22" s="4">
@@ -18438,7 +18440,7 @@
         <v>2035</v>
       </c>
       <c r="B23" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C23" s="4">
@@ -18493,7 +18495,7 @@
         <v>2036</v>
       </c>
       <c r="B24" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C24" s="4">
@@ -18548,7 +18550,7 @@
         <v>2037</v>
       </c>
       <c r="B25" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C25" s="4">
@@ -18603,7 +18605,7 @@
         <v>2038</v>
       </c>
       <c r="B26" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C26" s="4">
@@ -18658,7 +18660,7 @@
         <v>2039</v>
       </c>
       <c r="B27" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C27" s="4">
@@ -18713,7 +18715,7 @@
         <v>2040</v>
       </c>
       <c r="B28" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C28" s="4">
@@ -18768,7 +18770,7 @@
         <v>2041</v>
       </c>
       <c r="B29" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C29" s="4">
@@ -18823,7 +18825,7 @@
         <v>2042</v>
       </c>
       <c r="B30" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C30" s="4">
@@ -18878,7 +18880,7 @@
         <v>2043</v>
       </c>
       <c r="B31" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C31" s="4">
@@ -18933,7 +18935,7 @@
         <v>2044</v>
       </c>
       <c r="B32" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C32" s="4">
@@ -18988,7 +18990,7 @@
         <v>2045</v>
       </c>
       <c r="B33" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C33" s="4">
@@ -19043,7 +19045,7 @@
         <v>2046</v>
       </c>
       <c r="B34" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C34" s="4">
@@ -19098,7 +19100,7 @@
         <v>2047</v>
       </c>
       <c r="B35" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C35" s="4">
@@ -19146,7 +19148,7 @@
         <v>2048</v>
       </c>
       <c r="B36" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C36" s="4">
@@ -19194,7 +19196,7 @@
         <v>2049</v>
       </c>
       <c r="B37" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C37" s="4">
@@ -19242,7 +19244,7 @@
         <v>2050</v>
       </c>
       <c r="B38" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C38" s="4">
@@ -19253,7 +19255,7 @@
         <v>-1507.9851997671144</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" ref="E38:E69" si="10">E37*(1+B38)</f>
+        <f t="shared" ref="E38:E69" si="11">E37*(1+B38)</f>
         <v>7293.9219054780824</v>
       </c>
       <c r="F38" s="4">
@@ -19265,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ref="J38:J69" si="11">J37*(1+B38)</f>
+        <f t="shared" ref="J38:J69" si="12">J37*(1+B38)</f>
         <v>2172938.9056990715</v>
       </c>
       <c r="K38" s="5">
@@ -19290,7 +19292,7 @@
         <v>2051</v>
       </c>
       <c r="B39" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C39" s="4">
@@ -19301,7 +19303,7 @@
         <v>-1553.2247557601279</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7512.739562642425</v>
       </c>
       <c r="F39" s="4">
@@ -19313,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2238127.0728700436</v>
       </c>
       <c r="K39" s="5">
@@ -19338,7 +19340,7 @@
         <v>2052</v>
       </c>
       <c r="B40" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C40" s="4">
@@ -19349,7 +19351,7 @@
         <v>-1599.8214984329318</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7738.1217495216979</v>
       </c>
       <c r="F40" s="4">
@@ -19361,7 +19363,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2305270.885056145</v>
       </c>
       <c r="K40" s="5">
@@ -19386,7 +19388,7 @@
         <v>2053</v>
       </c>
       <c r="B41" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C41" s="4">
@@ -19397,7 +19399,7 @@
         <v>-1647.8161433859198</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7970.2654020073487</v>
       </c>
       <c r="F41" s="4">
@@ -19409,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2374429.0116078295</v>
       </c>
       <c r="K41" s="5">
@@ -19434,7 +19436,7 @@
         <v>2054</v>
       </c>
       <c r="B42" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C42" s="4">
@@ -19445,7 +19447,7 @@
         <v>-1697.2506276874974</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8209.3733640675691</v>
       </c>
       <c r="F42" s="4">
@@ -19457,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2445661.8819560646</v>
       </c>
       <c r="K42" s="5">
@@ -19482,7 +19484,7 @@
         <v>2055</v>
       </c>
       <c r="B43" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C43" s="4">
@@ -19493,7 +19495,7 @@
         <v>-1748.1681465181223</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8455.6545649895961</v>
       </c>
       <c r="F43" s="4">
@@ -19505,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2519031.7384147467</v>
       </c>
       <c r="K43" s="5">
@@ -19530,7 +19532,7 @@
         <v>2056</v>
       </c>
       <c r="B44" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C44" s="4">
@@ -19541,7 +19543,7 @@
         <v>-1800.6131909136659</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8709.3242019392837</v>
       </c>
       <c r="F44" s="4">
@@ -19553,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2594602.6905671894</v>
       </c>
       <c r="K44" s="5">
@@ -19578,7 +19580,7 @@
         <v>2057</v>
       </c>
       <c r="B45" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C45" s="4">
@@ -19589,7 +19591,7 @@
         <v>-1854.631586641076</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8970.603927997463</v>
       </c>
       <c r="F45" s="4">
@@ -19601,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2672440.7712842049</v>
       </c>
       <c r="K45" s="5">
@@ -19626,7 +19628,7 @@
         <v>2058</v>
       </c>
       <c r="B46" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C46" s="4">
@@ -19637,7 +19639,7 @@
         <v>-1910.2705342403083</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9239.7220458373868</v>
       </c>
       <c r="F46" s="4">
@@ -19649,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2752613.994422731</v>
       </c>
       <c r="K46" s="5">
@@ -19674,7 +19676,7 @@
         <v>2059</v>
       </c>
       <c r="B47" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C47" s="4">
@@ -19685,7 +19687,7 @@
         <v>-1967.5786502675176</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9516.9137072125086</v>
       </c>
       <c r="F47" s="4">
@@ -19697,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2835192.4142554128</v>
       </c>
       <c r="K47" s="5">
@@ -19722,7 +19724,7 @@
         <v>2060</v>
       </c>
       <c r="B48" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C48" s="4">
@@ -19733,7 +19735,7 @@
         <v>-2026.606009775543</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9802.4211184288833</v>
       </c>
       <c r="F48" s="4">
@@ -19745,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2920248.186683075</v>
       </c>
       <c r="K48" s="5">
@@ -19770,7 +19772,7 @@
         <v>2061</v>
       </c>
       <c r="B49" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C49" s="4">
@@ -19781,7 +19783,7 @@
         <v>-2087.4041900688094</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10096.49375198175</v>
       </c>
       <c r="F49" s="4">
@@ -19793,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3007855.6322835675</v>
       </c>
       <c r="K49" s="5">
@@ -19818,7 +19820,7 @@
         <v>2062</v>
       </c>
       <c r="B50" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C50" s="4">
@@ -19829,7 +19831,7 @@
         <v>-2150.0263157708737</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10399.388564541203</v>
       </c>
       <c r="F50" s="4">
@@ -19841,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3098091.3012520745</v>
       </c>
       <c r="K50" s="5">
@@ -19866,7 +19868,7 @@
         <v>2063</v>
       </c>
       <c r="B51" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C51" s="4">
@@ -19877,7 +19879,7 @@
         <v>-2214.5271052439998</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10711.370221477438</v>
       </c>
       <c r="F51" s="4">
@@ -19889,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3191034.0402896367</v>
       </c>
       <c r="K51" s="5">
@@ -19914,7 +19916,7 @@
         <v>2064</v>
       </c>
       <c r="B52" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C52" s="4">
@@ -19925,7 +19927,7 @@
         <v>-2280.9629184013197</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11032.711328121763</v>
       </c>
       <c r="F52" s="4">
@@ -19937,7 +19939,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3286765.0614983258</v>
       </c>
       <c r="K52" s="5">
@@ -19962,7 +19964,7 @@
         <v>2065</v>
       </c>
       <c r="B53" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C53" s="4">
@@ -19973,7 +19975,7 @@
         <v>-2349.3918059533594</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11363.692667965415</v>
       </c>
       <c r="F53" s="4">
@@ -19985,7 +19987,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3385368.0133432755</v>
       </c>
       <c r="K53" s="5">
@@ -20010,7 +20012,7 @@
         <v>2066</v>
       </c>
       <c r="B54" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C54" s="4">
@@ -20021,7 +20023,7 @@
         <v>-2419.8735601319604</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11704.603448004378</v>
       </c>
       <c r="F54" s="4">
@@ -20033,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3486929.0537435738</v>
       </c>
       <c r="K54" s="5">
@@ -20058,7 +20060,7 @@
         <v>2067</v>
       </c>
       <c r="B55" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C55" s="4">
@@ -20069,7 +20071,7 @@
         <v>-2492.4697669359193</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12055.741551444509</v>
       </c>
       <c r="F55" s="4">
@@ -20081,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3591536.925355881</v>
       </c>
       <c r="K55" s="5">
@@ -20106,7 +20108,7 @@
         <v>2068</v>
       </c>
       <c r="B56" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C56" s="4">
@@ -20117,7 +20119,7 @@
         <v>-2567.243859943997</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12417.413797987845</v>
       </c>
       <c r="F56" s="4">
@@ -20129,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3699283.0331165576</v>
       </c>
       <c r="K56" s="5">
@@ -20154,7 +20156,7 @@
         <v>2069</v>
       </c>
       <c r="B57" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C57" s="4">
@@ -20165,7 +20167,7 @@
         <v>-2644.2611757423169</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12789.936211927481</v>
       </c>
       <c r="F57" s="4">
@@ -20177,7 +20179,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3810261.5241100546</v>
       </c>
       <c r="K57" s="5">
@@ -20202,7 +20204,7 @@
         <v>2070</v>
       </c>
       <c r="B58" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C58" s="4">
@@ -20213,7 +20215,7 @@
         <v>-2723.5890110145865</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13173.634298285306</v>
       </c>
       <c r="F58" s="4">
@@ -20225,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3924569.3698333562</v>
       </c>
       <c r="K58" s="5">
@@ -20250,7 +20252,7 @@
         <v>2071</v>
       </c>
       <c r="B59" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C59" s="4">
@@ -20261,7 +20263,7 @@
         <v>-2805.2966813450244</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13568.843327233864</v>
       </c>
       <c r="F59" s="4">
@@ -20273,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4042306.450928357</v>
       </c>
       <c r="K59" s="5">
@@ -20298,7 +20300,7 @@
         <v>2072</v>
       </c>
       <c r="B60" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C60" s="4">
@@ -20309,7 +20311,7 @@
         <v>-2889.4555817853752</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13975.908627050881</v>
       </c>
       <c r="F60" s="4">
@@ -20321,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4163575.6444562078</v>
       </c>
       <c r="K60" s="5">
@@ -20346,7 +20348,7 @@
         <v>2073</v>
       </c>
       <c r="B61" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C61" s="4">
@@ -20357,7 +20359,7 @@
         <v>-2976.1392492389364</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14395.185885862409</v>
       </c>
       <c r="F61" s="4">
@@ -20369,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4288482.9137898944</v>
       </c>
       <c r="K61" s="5">
@@ -20394,7 +20396,7 @@
         <v>2074</v>
       </c>
       <c r="B62" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C62" s="4">
@@ -20405,7 +20407,7 @@
         <v>-3065.4234267161046</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14827.041462438281</v>
       </c>
       <c r="F62" s="4">
@@ -20417,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4417137.4012035914</v>
       </c>
       <c r="K62" s="5">
@@ -20442,7 +20444,7 @@
         <v>2075</v>
       </c>
       <c r="B63" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C63" s="4">
@@ -20453,7 +20455,7 @@
         <v>-3157.386129517588</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15271.852706311431</v>
       </c>
       <c r="F63" s="4">
@@ -20465,7 +20467,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4549651.5232396992</v>
       </c>
       <c r="K63" s="5">
@@ -20490,7 +20492,7 @@
         <v>2076</v>
       </c>
       <c r="B64" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C64" s="4">
@@ -20501,7 +20503,7 @@
         <v>-3252.1077134031157</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15730.008287500774</v>
       </c>
       <c r="F64" s="4">
@@ -20513,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4686141.06893689</v>
       </c>
       <c r="K64" s="5">
@@ -20538,7 +20540,7 @@
         <v>2077</v>
       </c>
       <c r="B65" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C65" s="4">
@@ -20549,7 +20551,7 @@
         <v>-3349.6709448052093</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16201.908536125797</v>
       </c>
       <c r="F65" s="4">
@@ -20561,7 +20563,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4826725.3010049965</v>
       </c>
       <c r="K65" s="5">
@@ -20586,7 +20588,7 @@
         <v>2078</v>
       </c>
       <c r="B66" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C66" s="4">
@@ -20597,7 +20599,7 @@
         <v>-3450.1610731493656</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16687.965792209572</v>
       </c>
       <c r="F66" s="4">
@@ -20609,11 +20611,11 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4971527.0600351468</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K69" si="12">I66+J66</f>
+        <f t="shared" ref="K66:K69" si="13">I66+J66</f>
         <v>4971527.0600351468</v>
       </c>
       <c r="L66" s="18">
@@ -20634,7 +20636,7 @@
         <v>2079</v>
       </c>
       <c r="B67" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C67" s="4">
@@ -20645,7 +20647,7 @@
         <v>-3553.6659053438466</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17188.604765975859</v>
       </c>
       <c r="F67" s="4">
@@ -20657,11 +20659,11 @@
         <v>0</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5120672.8718362013</v>
       </c>
       <c r="L67" s="18">
@@ -20682,7 +20684,7 @@
         <v>2080</v>
       </c>
       <c r="B68" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C68" s="4">
@@ -20693,7 +20695,7 @@
         <v>-3660.2758825041619</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17704.262908955134</v>
       </c>
       <c r="F68" s="4">
@@ -20705,23 +20707,23 @@
         <v>0</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="11"/>
-        <v>5274293.0579912877</v>
-      </c>
-      <c r="K68" s="5">
         <f t="shared" si="12"/>
         <v>5274293.0579912877</v>
       </c>
+      <c r="K68" s="5">
+        <f t="shared" si="13"/>
+        <v>5274293.0579912877</v>
+      </c>
       <c r="L68" s="18">
-        <f t="shared" ref="L68:L69" si="13">K68-K67+12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="L68:L69" si="14">K68-K67+12*(C68+D68+E68)+F68</f>
         <v>322148.03047249804</v>
       </c>
       <c r="M68" s="19">
-        <f t="shared" ref="M68:M69" si="14">L68/K67</f>
+        <f t="shared" ref="M68:M69" si="15">L68/K67</f>
         <v>6.2911269384990073E-2</v>
       </c>
       <c r="N68" s="18">
-        <f t="shared" ref="N68:N69" si="15">12*(C68+D68+E68)+F68</f>
+        <f t="shared" ref="N68:N69" si="16">12*(C68+D68+E68)+F68</f>
         <v>168527.84431741165</v>
       </c>
     </row>
@@ -20730,7 +20732,7 @@
         <v>2081</v>
       </c>
       <c r="B69" s="3">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C69" s="4">
@@ -20741,7 +20743,7 @@
         <v>-3770.0841589792867</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18235.39079622379</v>
       </c>
       <c r="F69" s="4">
@@ -20753,23 +20755,23 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="11"/>
-        <v>5432521.8497310262</v>
-      </c>
-      <c r="K69" s="5">
         <f t="shared" si="12"/>
         <v>5432521.8497310262</v>
       </c>
+      <c r="K69" s="5">
+        <f t="shared" si="13"/>
+        <v>5432521.8497310262</v>
+      </c>
       <c r="L69" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>331812.47138667258</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.2911269384990004E-2</v>
       </c>
       <c r="N69" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>173583.67964693403</v>
       </c>
     </row>
@@ -21416,7 +21418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E9655E-C9F7-7B4E-A7DC-701EF47E591E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
